--- a/financial_models/opportunities/0268.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0268.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7DB9822-702E-48F9-9DD4-FE9FDD0D6DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32C5DE32-B34E-45E1-9B82-E4FD70FAA0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -831,15 +831,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Consumer Monopoly</t>
-  </si>
-  <si>
-    <t>Strongly agree</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
     <t>6. No big MCX-D&amp;A required?</t>
   </si>
   <si>
@@ -962,6 +953,15 @@
   </si>
   <si>
     <t>CN</t>
+  </si>
+  <si>
+    <t>Strongly agree</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>Consumer Monopoly</t>
   </si>
 </sst>
 </file>
@@ -1520,7 +1520,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2155,6 +2155,7 @@
     <xf numFmtId="9" fontId="10" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3569,7 +3570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3580,29 +3581,29 @@
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
         <v>196</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
         <v>197</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
@@ -3610,7 +3611,7 @@
         <v>45603</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
@@ -3618,23 +3619,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
         <v>217</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="E8" s="268"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>218</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
         <v>219</v>
       </c>
@@ -3642,15 +3644,15 @@
         <v>3585854271</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
         <v>220</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
         <v>10</v>
       </c>
@@ -3658,7 +3660,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
         <v>11</v>
       </c>
@@ -3666,7 +3668,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
         <v>221</v>
       </c>
@@ -3674,15 +3676,15 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
         <v>97</v>
       </c>
@@ -3696,25 +3698,25 @@
         <v>226</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3723,16 +3725,16 @@
         <v>230</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3741,7 +3743,7 @@
         <v>232</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3876,7 +3878,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C29" s="151">
         <v>21953</v>
@@ -4142,7 +4144,7 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4191,7 +4193,7 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
@@ -4557,7 +4559,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4565,21 +4567,21 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C87" s="237" t="s">
         <v>253</v>
-      </c>
-      <c r="C87" s="237" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="268">
+      <c r="C89" s="269">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="268"/>
+      <c r="D89" s="269"/>
       <c r="E89" s="89" t="s">
         <v>208</v>
       </c>
@@ -4593,10 +4595,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="269" t="s">
+      <c r="C90" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="269"/>
+      <c r="D90" s="270"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4645,7 +4647,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4666,7 +4668,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4684,7 +4686,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4791,7 +4793,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Y, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4827,8 +4829,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4871,17 +4873,17 @@
       <c r="B3" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="274" t="str">
+      <c r="C3" s="275" t="str">
         <f>Inputs!C4</f>
         <v>0268.HK</v>
       </c>
-      <c r="D3" s="275"/>
+      <c r="D3" s="276"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>8.51</v>
+        <v>14.779999732971191</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4891,40 +4893,40 @@
       <c r="B4" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="276" t="str">
+      <c r="C4" s="277" t="str">
         <f>Inputs!C5</f>
         <v>金蝶国际</v>
       </c>
-      <c r="D4" s="277"/>
+      <c r="D4" s="278"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="280">
+      <c r="G4" s="281">
         <f>Inputs!C10</f>
         <v>3585854271</v>
       </c>
-      <c r="H4" s="280"/>
+      <c r="H4" s="281"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="278">
+      <c r="C5" s="279">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="279"/>
+      <c r="D5" s="280"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="272">
+      <c r="G5" s="273">
         <f>G3*G4/1000000</f>
-        <v>30515.61984621</v>
-      </c>
-      <c r="H5" s="272"/>
+        <v>52998.925167853609</v>
+      </c>
+      <c r="H5" s="273"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4947,11 +4949,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="273" t="str">
+      <c r="G6" s="274" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="273"/>
+      <c r="H6" s="274"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4971,7 +4973,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0734910170237224</v>
+        <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5014,7 +5016,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5064,7 +5066,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5104,7 +5106,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5154,12 +5156,12 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>-1.6549085424336935E-2</v>
+        <v>-8.8762743491511455E-3</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5203,12 +5205,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="G28" s="270" t="s">
-        <v>263</v>
-      </c>
-      <c r="H28" s="270"/>
+        <v>239</v>
+      </c>
+      <c r="G28" s="271" t="s">
+        <v>260</v>
+      </c>
+      <c r="H28" s="271"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5227,11 +5229,11 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="271">
+      <c r="G29" s="272">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="271"/>
+      <c r="H29" s="272"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5279,7 +5281,7 @@
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5289,7 +5291,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5316,7 +5318,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -6262,12 +6264,9 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{3894A86A-E1B4-A843-BE8E-14D1CE0AE26E}">
-      <formula1>"Y, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C33:C34 C36:C37 C39:C40" xr:uid="{AFC23D6B-591E-BA4C-B3BE-727ADB8DA907}">
       <formula1>"Strongly agree,agree,unclear,disagree,Strongly disagree"</formula1>
@@ -6753,7 +6752,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6804,7 +6803,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6855,7 +6854,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6906,7 +6905,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7008,7 +7007,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7161,7 +7160,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8232,7 +8231,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8301,7 +8300,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8505,7 +8504,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -11455,11 +11454,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="281">
+      <c r="D56" s="282">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="279"/>
+      <c r="E56" s="280"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11470,11 +11469,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="280">
+      <c r="D57" s="281">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="279"/>
+      <c r="E57" s="280"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11486,11 +11485,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="280">
+      <c r="D58" s="281">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="279"/>
+      <c r="E58" s="280"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11704,19 +11703,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="268">
+      <c r="C72" s="269">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="268"/>
-      <c r="E72" s="282" t="s">
+      <c r="D72" s="269"/>
+      <c r="E72" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F72" s="282"/>
-      <c r="H72" s="282" t="s">
+      <c r="F72" s="283"/>
+      <c r="H72" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="282"/>
+      <c r="I72" s="283"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11726,18 +11725,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="269" t="s">
+      <c r="C73" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="269"/>
-      <c r="E73" s="283" t="s">
+      <c r="D73" s="270"/>
+      <c r="E73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="269"/>
-      <c r="H73" s="283" t="s">
+      <c r="F73" s="270"/>
+      <c r="H73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="269"/>
+      <c r="I73" s="270"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11814,7 +11813,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11874,7 +11873,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11937,7 +11936,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11967,7 +11966,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12104,17 +12103,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.6549085424336935E-2</v>
+        <v>-8.8762743491511455E-3</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.6549085424336935E-2</v>
+        <v>-8.8762743491511455E-3</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.6549085424336935E-2</v>
+        <v>-8.8762743491511455E-3</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12196,15 +12195,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="282" t="s">
+      <c r="E92" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F92" s="282"/>
+      <c r="F92" s="283"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="282" t="s">
+      <c r="H92" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I92" s="282"/>
+      <c r="I92" s="283"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12225,14 +12224,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>-1.7994281246524881</v>
+        <v>-1.7426573770237705</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>-1.7994281246524881</v>
+        <v>-1.7426573770237705</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12283,7 +12282,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12300,21 +12299,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-3208026.4342121715</v>
+        <v>-3106815.3568772064</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.89463380041864826</v>
+        <v>-0.86640870545215931</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.89463380041864826</v>
+        <v>-0.86640870545215931</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-1.271043977926811</v>
+        <v>-1.2309433949097373</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12363,7 +12362,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-3208026.4342121715</v>
+        <v>-3106815.3568772064</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12407,7 +12406,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12468,7 +12467,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>

--- a/financial_models/opportunities/0268.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0268.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32C5DE32-B34E-45E1-9B82-E4FD70FAA0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDC1ECE4-1F79-43BB-8982-F872B71890C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,9 +625,6 @@
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
-    <t>Normalized E/P</t>
-  </si>
-  <si>
     <t>US Riskfree</t>
   </si>
   <si>
@@ -937,6 +934,10 @@
   </si>
   <si>
     <t>Base Case Valuation</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized PE Ratio</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1520,7 +1521,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2156,6 +2157,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3570,7 +3574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3584,12 +3588,12 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="189" t="s">
         <v>261</v>
@@ -3597,7 +3601,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="192" t="s">
         <v>262</v>
@@ -3621,7 +3625,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>71</v>
@@ -3630,7 +3634,7 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="193" t="s">
         <v>263</v>
@@ -3638,7 +3642,7 @@
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="194">
         <v>3585854271</v>
@@ -3646,7 +3650,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="193" t="s">
         <v>264</v>
@@ -3670,7 +3674,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3678,7 +3682,7 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C15" s="177" t="s">
         <v>265</v>
@@ -3695,7 +3699,7 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="243" t="s">
         <v>266</v>
@@ -3704,16 +3708,16 @@
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="243" t="s">
         <v>267</v>
@@ -3722,7 +3726,7 @@
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="243" t="s">
         <v>267</v>
@@ -3731,7 +3735,7 @@
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="243" t="s">
         <v>266</v>
@@ -3740,7 +3744,7 @@
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="244" t="s">
         <v>268</v>
@@ -3878,7 +3882,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C29" s="151">
         <v>21953</v>
@@ -4126,7 +4130,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C44" s="251">
         <v>0</v>
@@ -4144,7 +4148,7 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4193,13 +4197,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>36</v>
@@ -4541,7 +4545,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4559,7 +4563,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4567,26 +4571,26 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="269">
+      <c r="C89" s="270">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="269"/>
+      <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4595,10 +4599,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="270" t="s">
+      <c r="C90" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="270"/>
+      <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4647,7 +4651,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4668,7 +4672,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4686,7 +4690,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4743,7 +4747,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4830,7 +4834,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4871,19 +4875,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="275" t="str">
+        <v>195</v>
+      </c>
+      <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
         <v>0268.HK</v>
       </c>
-      <c r="D3" s="276"/>
+      <c r="D3" s="277"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.779999732971191</v>
+        <v>8.76</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4891,42 +4895,42 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="277" t="str">
+        <v>196</v>
+      </c>
+      <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
         <v>金蝶国际</v>
       </c>
-      <c r="D4" s="278"/>
+      <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="281">
+      <c r="G4" s="282">
         <f>Inputs!C10</f>
         <v>3585854271</v>
       </c>
-      <c r="H4" s="281"/>
+      <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="279">
+      <c r="C5" s="280">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="280"/>
+      <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="273">
+      <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>52998.925167853609</v>
-      </c>
-      <c r="H5" s="273"/>
+        <v>31412.083413959997</v>
+      </c>
+      <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4949,16 +4953,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="274" t="str">
+      <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="274"/>
+      <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -4973,7 +4977,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1</v>
+        <v>1.0736569960912068</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4983,40 +4987,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5029,29 +5033,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5061,12 +5065,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5076,7 +5080,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>52</v>
@@ -5084,7 +5088,7 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
@@ -5098,7 +5102,7 @@
         <v>0.35834792051449244</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5106,7 +5110,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5117,14 +5121,14 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5136,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G23" s="178" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5152,16 +5156,16 @@
         <v>3.8655956702792868E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="179">
-        <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>-8.8762743491511455E-3</v>
+        <v>260</v>
+      </c>
+      <c r="G24" s="269">
+        <f>G3/(Fin_Analysis!H86*G7)</f>
+        <v>-62.191839799357872</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5184,7 +5188,7 @@
         <v>-0.11044830732057855</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
@@ -5205,12 +5209,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" s="271" t="s">
-        <v>260</v>
-      </c>
-      <c r="H28" s="271"/>
+        <v>238</v>
+      </c>
+      <c r="G28" s="272" t="s">
+        <v>259</v>
+      </c>
+      <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5229,31 +5233,31 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="272">
+      <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="272"/>
+      <c r="H29" s="273"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5263,7 +5267,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="226" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5274,14 +5278,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5291,7 +5295,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5301,14 +5305,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5318,7 +5322,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5333,14 +5337,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6325,16 +6329,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>205</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>206</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6352,7 +6356,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6385,7 +6389,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6752,7 +6756,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6803,7 +6807,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6854,7 +6858,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6905,7 +6909,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7007,7 +7011,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7160,7 +7164,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8231,7 +8235,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8300,7 +8304,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8504,7 +8508,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10402,7 +10406,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
@@ -11454,11 +11458,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="282">
+      <c r="D56" s="283">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="280"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11469,11 +11473,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="281">
+      <c r="D57" s="282">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="280"/>
+      <c r="E57" s="281"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11485,11 +11489,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="281">
+      <c r="D58" s="282">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="280"/>
+      <c r="E58" s="281"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11703,19 +11707,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="269">
+      <c r="C72" s="270">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="269"/>
-      <c r="E72" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F72" s="283"/>
-      <c r="H72" s="283" t="s">
+      <c r="D72" s="270"/>
+      <c r="E72" s="284" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="283"/>
+      <c r="F72" s="284"/>
+      <c r="H72" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11725,18 +11729,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="270" t="s">
+      <c r="C73" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="270"/>
-      <c r="E73" s="284" t="s">
+      <c r="D73" s="271"/>
+      <c r="E73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="270"/>
-      <c r="H73" s="284" t="s">
+      <c r="F73" s="271"/>
+      <c r="H73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="270"/>
+      <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11813,7 +11817,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11873,7 +11877,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11936,7 +11940,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11966,7 +11970,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12099,28 +12103,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.8762743491511455E-3</v>
+        <v>-1.6079279905951985E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.8762743491511455E-3</v>
+        <v>-1.6079279905951985E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-8.8762743491511455E-3</v>
+        <v>-1.6079279905951985E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12150,7 +12154,7 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
@@ -12195,15 +12199,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F92" s="283"/>
+      <c r="E92" s="284" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="284"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="283" t="s">
-        <v>207</v>
-      </c>
-      <c r="I92" s="283"/>
+      <c r="H92" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12220,24 +12224,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>-1.7426573770237705</v>
+        <v>-1.8040091537762184</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>-1.7426573770237705</v>
+        <v>-1.8040091537762184</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12245,14 +12249,14 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
@@ -12275,14 +12279,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12299,21 +12303,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-3106815.3568772064</v>
+        <v>-3216193.5081416517</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.86640870545215931</v>
+        <v>-0.8969113815226909</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.86640870545215931</v>
+        <v>-0.8969113815226909</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-1.2309433949097373</v>
+        <v>-1.2742798334748335</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12362,7 +12366,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-3106815.3568772064</v>
+        <v>-3216193.5081416517</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12399,14 +12403,14 @@
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12453,21 +12457,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12480,7 +12484,7 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>

--- a/financial_models/opportunities/0268.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0268.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDC1ECE4-1F79-43BB-8982-F872B71890C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBF2838E-D3C9-40F0-96A3-E4558283B7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>Current Price:</t>
   </si>
   <si>
-    <t>HKD</t>
-  </si>
-  <si>
     <t>Number of Shares:</t>
   </si>
   <si>
@@ -963,6 +960,10 @@
   </si>
   <si>
     <t>Consumer Monopoly</t>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3588,28 +3589,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="190">
         <v>45603</v>
@@ -3617,7 +3618,7 @@
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="191">
         <v>8</v>
@@ -3625,24 +3626,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="192" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" s="268"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="194">
         <v>3585854271</v>
@@ -3650,15 +3651,15 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="220">
         <v>45291</v>
@@ -3666,7 +3667,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="221">
         <v>1000</v>
@@ -3674,7 +3675,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3682,15 +3683,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="224">
         <v>0.25</v>
@@ -3699,61 +3700,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3802,7 +3803,7 @@
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="150">
         <v>5679073</v>
@@ -3822,7 +3823,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="151">
         <v>2035084</v>
@@ -3842,7 +3843,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="151">
         <v>2809609</v>
@@ -3862,7 +3863,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="151">
         <v>1439671</v>
@@ -3882,7 +3883,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C29" s="151">
         <v>21953</v>
@@ -3902,7 +3903,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="151">
         <v>-59916</v>
@@ -3922,7 +3923,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="151"/>
       <c r="D31" s="151"/>
@@ -3938,7 +3939,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="151"/>
       <c r="D32" s="151"/>
@@ -3954,7 +3955,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="151"/>
       <c r="D33" s="151"/>
@@ -3970,7 +3971,7 @@
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="218"/>
       <c r="D34" s="151"/>
@@ -3986,7 +3987,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="218"/>
       <c r="D35" s="151"/>
@@ -4002,7 +4003,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="218"/>
       <c r="D36" s="151"/>
@@ -4018,7 +4019,7 @@
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="218"/>
       <c r="D37" s="151"/>
@@ -4034,7 +4035,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="218"/>
       <c r="D38" s="151"/>
@@ -4050,7 +4051,7 @@
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="218"/>
       <c r="D39" s="151"/>
@@ -4066,7 +4067,7 @@
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="218"/>
       <c r="D40" s="151"/>
@@ -4082,7 +4083,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="218"/>
       <c r="D41" s="151"/>
@@ -4098,7 +4099,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="218"/>
       <c r="D42" s="151"/>
@@ -4114,7 +4115,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="218"/>
       <c r="D43" s="151"/>
@@ -4130,7 +4131,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C44" s="251">
         <v>0</v>
@@ -4148,7 +4149,7 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4197,21 +4198,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" s="195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4221,7 +4222,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4231,7 +4232,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4242,7 +4243,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4252,7 +4253,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4262,7 +4263,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4273,7 +4274,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4283,7 +4284,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4294,7 +4295,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4302,24 +4303,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4330,7 +4331,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="196">
@@ -4341,7 +4342,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4352,7 +4353,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4363,7 +4364,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4374,7 +4375,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4385,7 +4386,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4395,31 +4396,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4427,12 +4428,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4443,7 +4444,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4454,7 +4455,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4464,7 +4465,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4475,7 +4476,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="247" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="248"/>
       <c r="D72" s="249">
@@ -4485,85 +4486,85 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" s="120"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="83"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4571,15 +4572,15 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C89" s="270">
         <f>C24</f>
@@ -4587,10 +4588,10 @@
       </c>
       <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4600,19 +4601,19 @@
         <v>(Numbers in 1000CNY)</v>
       </c>
       <c r="C90" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F90" s="256" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4630,7 +4631,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4651,7 +4652,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4672,7 +4673,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4690,7 +4691,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4711,7 +4712,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4729,7 +4730,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4747,7 +4748,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4875,7 +4876,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
@@ -4887,15 +4888,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>8.76</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>2</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
@@ -4904,7 +4905,7 @@
       <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="282">
         <f>Inputs!C10</f>
@@ -4915,7 +4916,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="280">
         <f>Inputs!C6</f>
@@ -4924,11 +4925,11 @@
       <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>31412.083413959997</v>
+        <v>31519.659042089996</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4936,7 +4937,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="186">
         <f>Inputs!C7</f>
@@ -4951,7 +4952,7 @@
         <v>45291</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
@@ -4962,7 +4963,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -4974,10 +4975,10 @@
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0736569960912068</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4987,40 +4988,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5033,29 +5034,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5065,12 +5066,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5080,29 +5081,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="172">
         <f>Fin_Analysis!I75</f>
         <v>0.35834792051449244</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5110,7 +5111,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5121,26 +5122,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="172">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G23" s="178" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5149,30 +5150,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="172">
         <f>Fin_Analysis!I81</f>
         <v>3.8655956702792868E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-62.191839799357872</v>
+        <v>-62.475932067533563</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
@@ -5181,14 +5182,14 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="172">
         <f>Fin_Analysis!I83</f>
         <v>-0.11044830732057855</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
@@ -5199,26 +5200,26 @@
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>167</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>168</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G28" s="272" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
@@ -5243,21 +5244,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5267,7 +5268,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="226" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5278,14 +5279,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5295,7 +5296,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5305,14 +5306,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5322,7 +5323,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5337,14 +5338,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6324,21 +6325,21 @@
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>204</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6349,14 +6350,14 @@
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="202">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6378,7 +6379,7 @@
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="128">
         <f>Inputs!C13</f>
@@ -6389,7 +6390,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6400,7 +6401,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6450,7 +6451,7 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="201">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
@@ -6501,7 +6502,7 @@
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="92">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
@@ -6552,7 +6553,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="200">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6603,7 +6604,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="152">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6654,7 +6655,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="200">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6705,7 +6706,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="200">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6756,7 +6757,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6807,7 +6808,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6858,7 +6859,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6909,7 +6910,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6960,7 +6961,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="200" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7011,7 +7012,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7062,7 +7063,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="153" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7113,7 +7114,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="200" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7164,7 +7165,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7215,7 +7216,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="200" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7266,7 +7267,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="162">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7317,7 +7318,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="154">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7368,7 +7369,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="155">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7419,7 +7420,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="235" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="234">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7470,7 +7471,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7521,7 +7522,7 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C36="","",C36+C31+C32)</f>
@@ -7572,7 +7573,7 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C28</f>
@@ -7623,7 +7624,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7674,7 +7675,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7725,7 +7726,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I28</f>
@@ -7776,7 +7777,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -7827,7 +7828,7 @@
     <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="65">
         <f>Fin_Analysis!I15</f>
@@ -7878,7 +7879,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="65">
         <f>Fin_Analysis!I34</f>
@@ -7929,7 +7930,7 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="77">
         <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
@@ -7980,7 +7981,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8031,7 +8032,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8082,7 +8083,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8133,7 +8134,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8184,7 +8185,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" s="156" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8235,7 +8236,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8253,7 +8254,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="157">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8304,7 +8305,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8355,7 +8356,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="154">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8406,7 +8407,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="154">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8457,7 +8458,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="154">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8508,7 +8509,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8559,7 +8560,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="154">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8610,7 +8611,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8628,7 +8629,7 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50" s="157">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
@@ -8679,7 +8680,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="154">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
@@ -8730,7 +8731,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8747,7 +8748,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="157" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
@@ -8797,7 +8798,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" s="158" t="str">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
@@ -8847,7 +8848,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="154">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
@@ -8897,7 +8898,7 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="159" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
@@ -10256,7 +10257,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10266,12 +10267,12 @@
       <c r="H2" s="7"/>
       <c r="I2" s="87"/>
       <c r="K2" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10285,7 +10286,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="205">
         <f>Inputs!C83</f>
@@ -10295,7 +10296,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10313,10 +10314,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10326,7 +10327,7 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
@@ -10340,7 +10341,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10351,7 +10352,7 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10363,7 +10364,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10381,7 +10382,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="204">
@@ -10400,32 +10401,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="111" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10442,7 +10443,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10453,7 +10454,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10470,7 +10471,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10481,7 +10482,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10498,7 +10499,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10509,7 +10510,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10526,7 +10527,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="206">
         <f>Inputs!C76</f>
@@ -10537,7 +10538,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10554,7 +10555,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10564,7 +10565,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10586,7 +10587,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10608,7 +10609,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10629,7 +10630,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10654,7 +10655,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10681,7 +10682,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10702,7 +10703,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10719,7 +10720,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10731,13 +10732,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10759,7 +10760,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10779,7 +10780,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10788,7 +10789,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10808,7 +10809,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10821,7 +10822,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10841,7 +10842,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10854,7 +10855,7 @@
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
@@ -10871,7 +10872,7 @@
       <c r="F28" s="112"/>
       <c r="G28" s="87"/>
       <c r="H28" s="78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="207">
         <f>Inputs!C77</f>
@@ -10887,7 +10888,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10896,7 +10897,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10912,7 +10913,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -10922,7 +10923,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -10939,7 +10940,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -10949,7 +10950,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -10966,7 +10967,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -10976,7 +10977,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10996,7 +10997,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I33" s="206">
         <f>Inputs!C81</f>
@@ -11006,7 +11007,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11023,7 +11024,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11033,7 +11034,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11059,7 +11060,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11086,7 +11087,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11113,7 +11114,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11134,7 +11135,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11155,7 +11156,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11176,7 +11177,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11197,7 +11198,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11214,7 +11215,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11232,7 +11233,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11251,7 +11252,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11270,7 +11271,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11287,7 +11288,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11300,7 +11301,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11317,7 +11318,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11330,7 +11331,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11347,7 +11348,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48" s="208">
         <f>Inputs!C82</f>
@@ -11357,7 +11358,7 @@
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="61">
         <f>C28+C48</f>
@@ -11374,7 +11375,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11390,14 +11391,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11409,12 +11410,12 @@
       <c r="G52" s="87"/>
       <c r="I52" s="87"/>
       <c r="K52" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11444,7 +11445,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11455,7 +11456,7 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="87"/>
       <c r="D56" s="283">
@@ -11470,7 +11471,7 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="87"/>
       <c r="D57" s="282">
@@ -11481,12 +11482,12 @@
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" s="87"/>
       <c r="D58" s="282">
@@ -11510,11 +11511,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11524,7 +11525,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11545,7 +11546,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11566,7 +11567,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11587,7 +11588,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" s="209"/>
       <c r="D64" s="209"/>
@@ -11602,7 +11603,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11633,11 +11634,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11647,7 +11648,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11668,7 +11669,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="209"/>
       <c r="D69" s="209"/>
@@ -11683,7 +11684,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11705,7 +11706,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="270">
         <f>Data!C5</f>
@@ -11713,15 +11714,15 @@
       </c>
       <c r="D72" s="270"/>
       <c r="E72" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F72" s="284"/>
       <c r="H72" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11730,22 +11731,22 @@
         <v>(Numbers in 1000CNY)</v>
       </c>
       <c r="C73" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D73" s="271"/>
       <c r="E73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F73" s="271"/>
       <c r="H73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11766,7 +11767,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11796,7 +11797,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="162">
         <f>C74-C75</f>
@@ -11817,7 +11818,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11847,7 +11848,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11877,7 +11878,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11908,7 +11909,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -11935,12 +11936,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="182" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11970,7 +11971,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12000,7 +12001,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C83" s="164">
         <f>C79-C81-C82-C80</f>
@@ -12030,7 +12031,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="212"/>
       <c r="D84" s="160">
@@ -12051,7 +12052,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="264" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="258">
         <f>C83*(1-I84)</f>
@@ -12082,7 +12083,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C86" s="168">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12103,28 +12104,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.6079279905951985E-2</v>
+        <v>-1.6006163764296411E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.6079279905951985E-2</v>
+        <v>-1.6006163764296411E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.6079279905951985E-2</v>
+        <v>-1.6006163764296411E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12154,7 +12155,7 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
@@ -12185,27 +12186,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" s="199" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E92" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F92" s="284"/>
       <c r="G92" s="87"/>
       <c r="H92" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I92" s="284"/>
       <c r="K92" s="24"/>
@@ -12224,24 +12225,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>-1.8040091537762184</v>
+        <v>-1.8026255595657883</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>-1.8040091537762184</v>
+        <v>-1.8026255595657883</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12249,14 +12250,14 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
@@ -12279,51 +12280,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-3216193.5081416517</v>
+        <v>-3213726.8317901636</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.8969113815226909</v>
+        <v>-0.8962234906701716</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.8969113815226909</v>
+        <v>-0.8962234906701716</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-1.2742798334748335</v>
+        <v>-1.2733025179238715</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
@@ -12341,7 +12342,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12362,11 +12363,11 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-3216193.5081416517</v>
+        <v>-3213726.8317901636</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12396,34 +12397,34 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
@@ -12457,34 +12458,34 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
@@ -12517,7 +12518,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0268.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0268.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBF2838E-D3C9-40F0-96A3-E4558283B7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21535F54-8D6F-400A-81D6-CA5110C7AEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4798,7 +4798,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4888,7 +4888,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>8.7899999999999991</v>
+        <v>8.75</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -4929,7 +4929,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>31519.659042089996</v>
+        <v>31376.22487125</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4978,7 +4978,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-62.475932067533563</v>
+        <v>-62.193560900447089</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12108,17 +12108,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.6006163764296411E-2</v>
+        <v>-1.6078834939210102E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.6006163764296411E-2</v>
+        <v>-1.6078834939210102E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.6006163764296411E-2</v>
+        <v>-1.6078834939210102E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12229,14 +12229,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>-1.8026255595657883</v>
+        <v>-1.8019039911440506</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>-1.8026255595657883</v>
+        <v>-1.8019039911440506</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12304,21 +12304,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-3213726.8317901636</v>
+        <v>-3212440.4172124909</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.8962234906701716</v>
+        <v>-0.89586474363795776</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.8962234906701716</v>
+        <v>-0.89586474363795776</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-1.2733025179238715</v>
+        <v>-1.2727928308824461</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12367,7 +12367,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-3213726.8317901636</v>
+        <v>-3212440.4172124909</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>

--- a/financial_models/opportunities/0268.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0268.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21535F54-8D6F-400A-81D6-CA5110C7AEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A692930E-D654-4158-9D6B-7749CE4E812B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4978,7 +4978,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0725016991297405</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-62.193560900447089</v>
+        <v>-62.187761013947259</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12108,17 +12108,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.6078834939210102E-2</v>
+        <v>-1.6080334517522239E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.6078834939210102E-2</v>
+        <v>-1.6080334517522239E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.6078834939210102E-2</v>
+        <v>-1.6080334517522239E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12229,14 +12229,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>-1.8019039911440506</v>
+        <v>-1.8020583116230244</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>-1.8019039911440506</v>
+        <v>-1.8020583116230244</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12304,21 +12304,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-3212440.4172124909</v>
+        <v>-3212715.5402747048</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.89586474363795776</v>
+        <v>-0.89594146818988363</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.89586474363795776</v>
+        <v>-0.89594146818988363</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-1.2727928308824461</v>
+        <v>-1.2729018366897817</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12367,7 +12367,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-3212440.4172124909</v>
+        <v>-3212715.5402747048</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>

--- a/financial_models/opportunities/0268.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0268.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A692930E-D654-4158-9D6B-7749CE4E812B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F99BDDD-5736-4700-90BA-5B6CE9899352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4978,7 +4978,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0725016991297405</v>
+        <v>1.072468360265096</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-62.187761013947259</v>
+        <v>-62.189694189249956</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12108,17 +12108,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.6080334517522239E-2</v>
+        <v>-1.6079834658084859E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.6080334517522239E-2</v>
+        <v>-1.6079834658084859E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.6080334517522239E-2</v>
+        <v>-1.6079834658084859E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12229,14 +12229,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>-1.8020583116230244</v>
+        <v>-1.8020068717386493</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>-1.8020583116230244</v>
+        <v>-1.8020068717386493</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12304,21 +12304,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-3212715.5402747048</v>
+        <v>-3212623.8330780747</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.89594146818988363</v>
+        <v>-0.89591589347610578</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.89594146818988363</v>
+        <v>-0.89591589347610578</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-1.2729018366897817</v>
+        <v>-1.2728655016151187</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12367,7 +12367,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-3212715.5402747048</v>
+        <v>-3212623.8330780747</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>

--- a/financial_models/opportunities/0268.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0268.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F99BDDD-5736-4700-90BA-5B6CE9899352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97057592-FAC0-43F9-878A-3756AFCFFBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4590,7 +4590,7 @@
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="89" t="s">
         <v>205</v>
       </c>
       <c r="H89" s="31"/>
@@ -4978,7 +4978,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.072468360265096</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-62.189694189249956</v>
+        <v>-62.191627484746157</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12108,17 +12108,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.6079834658084859E-2</v>
+        <v>-1.6079334798647482E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.6079834658084859E-2</v>
+        <v>-1.6079334798647482E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.6079834658084859E-2</v>
+        <v>-1.6079334798647482E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12229,14 +12229,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>-1.8020068717386493</v>
+        <v>-1.8019554315789921</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>-1.8020068717386493</v>
+        <v>-1.8019554315789921</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12304,21 +12304,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-3212623.8330780747</v>
+        <v>-3212532.1253906717</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.89591589347610578</v>
+        <v>-0.8958903186254642</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.89591589347610578</v>
+        <v>-0.8958903186254642</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-1.2728655016151187</v>
+        <v>-1.2728291663460072</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12367,7 +12367,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-3212623.8330780747</v>
+        <v>-3212532.1253906717</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>

--- a/financial_models/opportunities/0268.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0268.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97057592-FAC0-43F9-878A-3756AFCFFBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0EDCA1E-5F5F-48EB-B3ED-7FF9B5A62113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4978,7 +4978,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5027,7 +5027,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="173">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5074,7 +5074,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="176">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-62.191627484746157</v>
+        <v>-62.193560900447089</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12108,17 +12108,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.6079334798647482E-2</v>
+        <v>-1.6078834939210102E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.6079334798647482E-2</v>
+        <v>-1.6078834939210102E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.6079334798647482E-2</v>
+        <v>-1.6078834939210102E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12218,7 +12218,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D93" s="240">
         <f>Inputs!C86</f>
@@ -12229,14 +12229,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>-1.8019554315789921</v>
+        <v>-1.8802476429329227</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>-1.8019554315789921</v>
+        <v>-1.8802476429329227</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12304,21 +12304,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-3212532.1253906717</v>
+        <v>-3352111.739699991</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.8958903186254642</v>
+        <v>-0.93481538466569514</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.8958903186254642</v>
+        <v>-0.93481538466569514</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-1.2728291663460072</v>
+        <v>-1.3468726276254761</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12367,7 +12367,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-3212532.1253906717</v>
+        <v>-3352111.739699991</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>

--- a/financial_models/opportunities/0268.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0268.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0EDCA1E-5F5F-48EB-B3ED-7FF9B5A62113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EF2A6D7-3B69-4089-93CB-BD4E922C35F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -970,7 +970,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -983,6 +983,7 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1522,7 +1523,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1822,9 +1823,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2159,6 +2157,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3596,7 +3600,7 @@
       <c r="B4" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="188" t="s">
         <v>260</v>
       </c>
     </row>
@@ -3604,7 +3608,7 @@
       <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3612,7 +3616,7 @@
       <c r="B6" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>45603</v>
       </c>
     </row>
@@ -3620,7 +3624,7 @@
       <c r="B7" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="191">
+      <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
@@ -3628,16 +3632,16 @@
       <c r="B8" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="191" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="268"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="192" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3645,7 +3649,7 @@
       <c r="B10" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="193">
         <v>3585854271</v>
       </c>
     </row>
@@ -3653,101 +3657,101 @@
       <c r="B11" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="219">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="220">
+      <c r="C14" s="219">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="218" t="s">
         <v>256</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="223">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="243" t="s">
+      <c r="C17" s="242" t="s">
         <v>265</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="240" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="242" t="s">
         <v>245</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="242" t="s">
         <v>266</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="241" t="s">
         <v>228</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="242" t="s">
         <v>266</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="242" t="s">
         <v>265</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="243" t="s">
         <v>267</v>
       </c>
       <c r="D22" s="24"/>
@@ -3805,393 +3809,393 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="150">
+      <c r="C25" s="149">
         <v>5679073</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="149">
         <v>4865769</v>
       </c>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="151">
+      <c r="C26" s="150">
         <v>2035084</v>
       </c>
-      <c r="D26" s="151">
+      <c r="D26" s="150">
         <v>1868136</v>
       </c>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="151">
+      <c r="C27" s="150">
         <v>2809609</v>
       </c>
-      <c r="D27" s="151">
+      <c r="D27" s="150">
         <v>2530441</v>
       </c>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="151">
+      <c r="C28" s="150">
         <v>1439671</v>
       </c>
-      <c r="D28" s="151">
+      <c r="D28" s="150">
         <v>1295476</v>
       </c>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="C29" s="151">
+      <c r="C29" s="150">
         <v>21953</v>
       </c>
-      <c r="D29" s="151">
+      <c r="D29" s="150">
         <v>7661</v>
       </c>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="151">
+      <c r="C30" s="150">
         <v>-59916</v>
       </c>
-      <c r="D30" s="151">
+      <c r="D30" s="150">
         <v>-63246</v>
       </c>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
+      <c r="C37" s="217"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
+      <c r="C38" s="217"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="218"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="C39" s="217"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
+      <c r="C40" s="217"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="C41" s="217"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="C42" s="217"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="C43" s="217"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="251">
-        <v>0</v>
-      </c>
-      <c r="D44" s="251"/>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
+      <c r="C44" s="250">
+        <v>0</v>
+      </c>
+      <c r="D44" s="250"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="250"/>
+      <c r="M44" s="250"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="C45" s="153">
+      <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="153" t="str">
+      <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -4200,10 +4204,10 @@
       <c r="B47" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -4302,7 +4306,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4314,7 +4318,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4334,7 +4338,7 @@
         <v>50</v>
       </c>
       <c r="C59" s="120"/>
-      <c r="D59" s="196">
+      <c r="D59" s="195">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -4402,7 +4406,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="222" t="s">
+      <c r="E65" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4414,7 +4418,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="222" t="s">
+      <c r="E66" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4427,7 +4431,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4475,14 +4479,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="247" t="s">
+      <c r="B72" s="246" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="248"/>
-      <c r="D72" s="249">
-        <v>0</v>
-      </c>
-      <c r="E72" s="250"/>
+      <c r="C72" s="247"/>
+      <c r="D72" s="248">
+        <v>0</v>
+      </c>
+      <c r="E72" s="249"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -4566,7 +4570,7 @@
       <c r="B86" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C86" s="198">
+      <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
@@ -4574,19 +4578,20 @@
       <c r="B87" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="236" t="s">
         <v>251</v>
       </c>
+      <c r="D87" s="269"/>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="270">
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
@@ -4600,14 +4605,14 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
+      <c r="D90" s="272"/>
+      <c r="E90" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="F90" s="256" t="s">
+      <c r="F90" s="255" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4619,12 +4624,12 @@
         <f>C25</f>
         <v>5679073</v>
       </c>
-      <c r="D91" s="210"/>
-      <c r="E91" s="252">
+      <c r="D91" s="209"/>
+      <c r="E91" s="251">
         <f>C91</f>
         <v>5679073</v>
       </c>
-      <c r="F91" s="252">
+      <c r="F91" s="251">
         <f>C91</f>
         <v>5679073</v>
       </c>
@@ -4637,15 +4642,15 @@
         <f>C26</f>
         <v>2035084</v>
       </c>
-      <c r="D92" s="160">
+      <c r="D92" s="159">
         <f>C92/C91</f>
         <v>0.35834792051449244</v>
       </c>
-      <c r="E92" s="253">
+      <c r="E92" s="252">
         <f>E91*D92</f>
         <v>2035084</v>
       </c>
-      <c r="F92" s="253">
+      <c r="F92" s="252">
         <f>F91*D92</f>
         <v>2035084</v>
       </c>
@@ -4658,15 +4663,15 @@
         <f>C27+C28</f>
         <v>4249280</v>
       </c>
-      <c r="D93" s="160">
+      <c r="D93" s="159">
         <f>C93/C91</f>
         <v>0.74823479113580682</v>
       </c>
-      <c r="E93" s="253">
+      <c r="E93" s="252">
         <f>E91*D93</f>
         <v>4249280</v>
       </c>
-      <c r="F93" s="253">
+      <c r="F93" s="252">
         <f>F91*D93</f>
         <v>4249280</v>
       </c>
@@ -4679,12 +4684,12 @@
         <f>C29</f>
         <v>21953</v>
       </c>
-      <c r="D94" s="160">
+      <c r="D94" s="159">
         <f>C94/C91</f>
         <v>3.8655956702792868E-3</v>
       </c>
-      <c r="E94" s="254"/>
-      <c r="F94" s="253">
+      <c r="E94" s="253"/>
+      <c r="F94" s="252">
         <f>F91*D94</f>
         <v>21953</v>
       </c>
@@ -4697,15 +4702,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="160">
+      <c r="D95" s="159">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="253">
+      <c r="E95" s="252">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="253">
+      <c r="F95" s="252">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -4718,12 +4723,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="160">
+      <c r="D96" s="159">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="254"/>
-      <c r="F96" s="253">
+      <c r="E96" s="253"/>
+      <c r="F96" s="252">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4736,12 +4741,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="160">
+      <c r="D97" s="159">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="254"/>
-      <c r="F97" s="253">
+      <c r="E97" s="253"/>
+      <c r="F97" s="252">
         <f>F91*D97</f>
         <v>0</v>
       </c>
@@ -4750,16 +4755,16 @@
       <c r="B98" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="237">
         <f>C44</f>
         <v>0</v>
       </c>
-      <c r="D98" s="267"/>
-      <c r="E98" s="255">
+      <c r="D98" s="266"/>
+      <c r="E98" s="254">
         <f>F98</f>
         <v>0</v>
       </c>
-      <c r="F98" s="255">
+      <c r="F98" s="254">
         <f>C98</f>
         <v>0</v>
       </c>
@@ -4878,17 +4883,17 @@
       <c r="B3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="276" t="str">
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>0268.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>8.75</v>
+        <v>8.98</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -4898,40 +4903,40 @@
       <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="278" t="str">
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>金蝶国际</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>3585854271</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="280">
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="274">
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>31376.22487125</v>
-      </c>
-      <c r="H5" s="274"/>
+        <v>32200.97135358</v>
+      </c>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4939,11 +4944,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="185">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="186">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4954,22 +4959,22 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="275" t="str">
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="188" t="str">
+      <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="188" t="str">
+      <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
         <v>C0009</v>
       </c>
@@ -4978,7 +4983,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0714173714319866</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4998,7 +5003,7 @@
       <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -5009,7 +5014,7 @@
       <c r="B11" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
@@ -5023,11 +5028,11 @@
       <c r="B12" s="87" t="s">
         <v>254</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="174">
         <v>0.06</v>
       </c>
-      <c r="D12" s="173">
-        <v>6.4500000000000002E-2</v>
+      <c r="D12" s="172">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5036,7 +5041,7 @@
       <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -5047,7 +5052,7 @@
       <c r="B15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -5058,10 +5063,10 @@
       <c r="B16" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="173">
         <v>0.16</v>
       </c>
-      <c r="D16" s="266" t="str">
+      <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -5073,10 +5078,10 @@
       <c r="B17" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C17" s="176">
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D17" s="177"/>
+      <c r="C17" s="175">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5098,14 +5103,14 @@
       <c r="B20" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.35834792051449244</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
@@ -5113,7 +5118,7 @@
       <c r="B21" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
         <v>0.74823479113580682</v>
       </c>
@@ -5124,7 +5129,7 @@
       <c r="B22" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
@@ -5136,14 +5141,14 @@
       <c r="B23" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="178" t="e">
+      <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5152,30 +5157,30 @@
       <c r="B24" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>3.8655956702792868E-3</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>259</v>
       </c>
-      <c r="G24" s="269">
+      <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-62.193560900447089</v>
+        <v>-63.887002187738524</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="172">
+      <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
         <v>0</v>
       </c>
@@ -5184,14 +5189,14 @@
       <c r="B26" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>-0.11044830732057855</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
         <v>0</v>
       </c>
@@ -5212,10 +5217,10 @@
       <c r="F28" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="G28" s="272" t="s">
+      <c r="G28" s="273" t="s">
         <v>258</v>
       </c>
-      <c r="H28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5234,11 +5239,11 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="273">
+      <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="273"/>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5250,17 +5255,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="246" t="str">
+      <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -5270,7 +5275,7 @@
       <c r="B34" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C34" s="226" t="e">
+      <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -5278,17 +5283,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="196" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C36" s="246" t="str">
+      <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -5298,24 +5303,24 @@
       <c r="B37" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="246" t="str">
+      <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C39" s="246" t="str">
+      <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -5325,7 +5330,7 @@
       <c r="B40" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C40" s="246" t="str">
+      <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -5344,10 +5349,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C43" s="245" t="str">
+      <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -6329,16 +6334,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="148" t="s">
         <v>203</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>204</v>
       </c>
       <c r="I2" s="7"/>
@@ -6352,11 +6357,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -6389,7 +6394,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -6453,47 +6458,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>5679073</v>
       </c>
-      <c r="D6" s="201">
+      <c r="D6" s="200">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>4865769</v>
       </c>
-      <c r="E6" s="201" t="str">
+      <c r="E6" s="200" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="201" t="str">
+      <c r="F6" s="200" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="201" t="str">
+      <c r="G6" s="200" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="201" t="str">
+      <c r="H6" s="200" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="201" t="str">
+      <c r="I6" s="200" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="201" t="str">
+      <c r="J6" s="200" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="201" t="str">
+      <c r="K6" s="200" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="201" t="str">
+      <c r="L6" s="200" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="201" t="str">
+      <c r="M6" s="200" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6555,47 +6560,47 @@
       <c r="B8" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="200">
+      <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>2035084</v>
       </c>
-      <c r="D8" s="200">
+      <c r="D8" s="199">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>1868136</v>
       </c>
-      <c r="E8" s="200" t="str">
+      <c r="E8" s="199" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="200" t="str">
+      <c r="F8" s="199" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="200" t="str">
+      <c r="G8" s="199" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="200" t="str">
+      <c r="H8" s="199" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="200" t="str">
+      <c r="I8" s="199" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="200" t="str">
+      <c r="J8" s="199" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="200" t="str">
+      <c r="K8" s="199" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="200" t="str">
+      <c r="L8" s="199" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="200" t="str">
+      <c r="M8" s="199" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6606,47 +6611,47 @@
       <c r="B9" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>3643989</v>
       </c>
-      <c r="D9" s="152">
+      <c r="D9" s="151">
         <f t="shared" si="2"/>
         <v>2997633</v>
       </c>
-      <c r="E9" s="152" t="str">
+      <c r="E9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="152" t="str">
+      <c r="F9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="152" t="str">
+      <c r="G9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="152" t="str">
+      <c r="H9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="152" t="str">
+      <c r="I9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="152" t="str">
+      <c r="J9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="152" t="str">
+      <c r="K9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="152" t="str">
+      <c r="L9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6657,47 +6662,47 @@
       <c r="B10" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>2809609</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="199">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>2530441</v>
       </c>
-      <c r="E10" s="200" t="str">
+      <c r="E10" s="199" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="200" t="str">
+      <c r="F10" s="199" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="200" t="str">
+      <c r="G10" s="199" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="200" t="str">
+      <c r="H10" s="199" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="200" t="str">
+      <c r="I10" s="199" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="200" t="str">
+      <c r="J10" s="199" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="200" t="str">
+      <c r="K10" s="199" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="200" t="str">
+      <c r="L10" s="199" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="200" t="str">
+      <c r="M10" s="199" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6708,47 +6713,47 @@
       <c r="B11" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="200">
+      <c r="C11" s="199">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v>1439671</v>
       </c>
-      <c r="D11" s="200">
+      <c r="D11" s="199">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v>1295476</v>
       </c>
-      <c r="E11" s="200" t="str">
+      <c r="E11" s="199" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="200" t="str">
+      <c r="F11" s="199" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="200" t="str">
+      <c r="G11" s="199" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="200" t="str">
+      <c r="H11" s="199" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="200" t="str">
+      <c r="I11" s="199" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="200" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="199" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="200" t="str">
+      <c r="L11" s="199" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="200" t="str">
+      <c r="M11" s="199" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6759,47 +6764,47 @@
       <c r="B12" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="200">
+      <c r="D12" s="199">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="200" t="str">
+      <c r="E12" s="199" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="200" t="str">
+      <c r="F12" s="199" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="200" t="str">
+      <c r="G12" s="199" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="200" t="str">
+      <c r="H12" s="199" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="200" t="str">
+      <c r="I12" s="199" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="200" t="str">
+      <c r="J12" s="199" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="200" t="str">
+      <c r="K12" s="199" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="200" t="str">
+      <c r="L12" s="199" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="200" t="str">
+      <c r="M12" s="199" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6807,50 +6812,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>-0.10658271165029927</v>
       </c>
-      <c r="D13" s="230">
+      <c r="D13" s="229">
         <f t="shared" si="3"/>
         <v>-0.17022674113793729</v>
       </c>
-      <c r="E13" s="230" t="str">
+      <c r="E13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="230" t="str">
+      <c r="F13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="230" t="str">
+      <c r="G13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="230" t="str">
+      <c r="H13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="230" t="str">
+      <c r="I13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="230" t="str">
+      <c r="J13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="230" t="str">
+      <c r="K13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="230" t="str">
+      <c r="L13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="230" t="str">
+      <c r="M13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6858,50 +6863,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="231">
+      <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>-605291</v>
       </c>
-      <c r="D14" s="231">
+      <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>-828284</v>
       </c>
-      <c r="E14" s="231" t="str">
+      <c r="E14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="231" t="str">
+      <c r="F14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="231" t="str">
+      <c r="G14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="231" t="str">
+      <c r="H14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="231" t="str">
+      <c r="I14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="231" t="str">
+      <c r="J14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="231" t="str">
+      <c r="K14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="231" t="str">
+      <c r="L14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="231" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6909,50 +6914,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="233">
+      <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.26922287524568866</v>
       </c>
-      <c r="D15" s="233" t="str">
+      <c r="D15" s="232" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="233" t="str">
+      <c r="E15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="233" t="str">
+      <c r="F15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="233" t="str">
+      <c r="G15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="233" t="str">
+      <c r="H15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="233" t="str">
+      <c r="I15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="233" t="str">
+      <c r="J15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="233" t="str">
+      <c r="K15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="233" t="str">
+      <c r="L15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="233" t="str">
+      <c r="M15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6963,47 +6968,47 @@
       <c r="B16" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="200" t="str">
+      <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="200" t="str">
+      <c r="D16" s="199" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="200" t="str">
+      <c r="E16" s="199" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="200" t="str">
+      <c r="F16" s="199" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="200" t="str">
+      <c r="G16" s="199" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="200" t="str">
+      <c r="H16" s="199" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="200" t="str">
+      <c r="I16" s="199" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="200" t="str">
+      <c r="J16" s="199" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="200" t="str">
+      <c r="K16" s="199" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="200" t="str">
+      <c r="L16" s="199" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="200" t="str">
+      <c r="M16" s="199" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -7014,47 +7019,47 @@
       <c r="B17" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="C17" s="200">
+      <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>21953</v>
       </c>
-      <c r="D17" s="200">
+      <c r="D17" s="199">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>7661</v>
       </c>
-      <c r="E17" s="200" t="str">
+      <c r="E17" s="199" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="200" t="str">
+      <c r="F17" s="199" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="200" t="str">
+      <c r="G17" s="199" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="200" t="str">
+      <c r="H17" s="199" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="200" t="str">
+      <c r="I17" s="199" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="200" t="str">
+      <c r="J17" s="199" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="200" t="str">
+      <c r="K17" s="199" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="200" t="str">
+      <c r="L17" s="199" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="200" t="str">
+      <c r="M17" s="199" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -7065,47 +7070,47 @@
       <c r="B18" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="153" t="str">
+      <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="153" t="str">
+      <c r="D18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="153" t="str">
+      <c r="E18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="153" t="str">
+      <c r="F18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="153" t="str">
+      <c r="G18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="153" t="str">
+      <c r="H18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="153" t="str">
+      <c r="I18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="153" t="str">
+      <c r="J18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="153" t="str">
+      <c r="K18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="153" t="str">
+      <c r="L18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="153" t="str">
+      <c r="M18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7116,47 +7121,47 @@
       <c r="B19" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="200" t="str">
+      <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="200" t="str">
+      <c r="D19" s="199" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="200" t="str">
+      <c r="E19" s="199" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="200" t="str">
+      <c r="F19" s="199" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="200" t="str">
+      <c r="G19" s="199" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="200" t="str">
+      <c r="H19" s="199" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="200" t="str">
+      <c r="I19" s="199" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="200" t="str">
+      <c r="J19" s="199" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="200" t="str">
+      <c r="K19" s="199" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="200" t="str">
+      <c r="L19" s="199" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="200" t="str">
+      <c r="M19" s="199" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -7167,47 +7172,47 @@
       <c r="B20" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="153" t="str">
+      <c r="E20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="153" t="str">
+      <c r="F20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="153" t="str">
+      <c r="G20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="153" t="str">
+      <c r="H20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="153" t="str">
+      <c r="I20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="153" t="str">
+      <c r="J20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="153" t="str">
+      <c r="K20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="153" t="str">
+      <c r="L20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="153" t="str">
+      <c r="M20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7218,47 +7223,47 @@
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="200" t="str">
+      <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="200" t="str">
+      <c r="D21" s="199" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="200" t="str">
+      <c r="E21" s="199" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="200" t="str">
+      <c r="F21" s="199" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="200" t="str">
+      <c r="G21" s="199" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="200" t="str">
+      <c r="H21" s="199" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="200" t="str">
+      <c r="I21" s="199" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="200" t="str">
+      <c r="J21" s="199" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="200" t="str">
+      <c r="K21" s="199" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="200" t="str">
+      <c r="L21" s="199" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="200" t="str">
+      <c r="M21" s="199" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -7269,47 +7274,47 @@
       <c r="B22" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>-627244</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>-835945</v>
       </c>
-      <c r="E22" s="162" t="str">
+      <c r="E22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="162" t="str">
+      <c r="F22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="162" t="str">
+      <c r="G22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="162" t="str">
+      <c r="H22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="162" t="str">
+      <c r="I22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="162" t="str">
+      <c r="J22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="162" t="str">
+      <c r="K22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="162" t="str">
+      <c r="L22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="162" t="str">
+      <c r="M22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7320,47 +7325,47 @@
       <c r="B23" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>-8.2836230490433913E-2</v>
       </c>
-      <c r="D23" s="154">
+      <c r="D23" s="153">
         <f t="shared" si="9"/>
         <v>-0.12885090722555881</v>
       </c>
-      <c r="E23" s="154" t="str">
+      <c r="E23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="154" t="str">
+      <c r="F23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="154" t="str">
+      <c r="G23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="154" t="str">
+      <c r="H23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="154" t="str">
+      <c r="I23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="154" t="str">
+      <c r="J23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="154" t="str">
+      <c r="K23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="154" t="str">
+      <c r="L23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="154" t="str">
+      <c r="M23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7371,7 +7376,7 @@
       <c r="B24" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>-470433</v>
       </c>
@@ -7419,50 +7424,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="234" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="234">
+      <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.24965876941664822</v>
       </c>
-      <c r="D25" s="234" t="str">
+      <c r="D25" s="233" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="234" t="str">
+      <c r="E25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="234" t="str">
+      <c r="F25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="234" t="str">
+      <c r="G25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="234" t="str">
+      <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="234" t="str">
+      <c r="I25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="234" t="str">
+      <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="234" t="str">
+      <c r="K25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="234" t="str">
+      <c r="L25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="234" t="str">
+      <c r="M25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7579,43 +7584,43 @@
         <f>Fin_Analysis!C28</f>
         <v>0</v>
       </c>
-      <c r="D28" s="200" t="str">
+      <c r="D28" s="199" t="str">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
         <v/>
       </c>
-      <c r="E28" s="200" t="str">
+      <c r="E28" s="199" t="str">
         <f>IF(Inputs!E34="","",Inputs!E34)</f>
         <v/>
       </c>
-      <c r="F28" s="200" t="str">
+      <c r="F28" s="199" t="str">
         <f>IF(Inputs!F34="","",Inputs!F34)</f>
         <v/>
       </c>
-      <c r="G28" s="200" t="str">
+      <c r="G28" s="199" t="str">
         <f>IF(Inputs!G34="","",Inputs!G34)</f>
         <v/>
       </c>
-      <c r="H28" s="200" t="str">
+      <c r="H28" s="199" t="str">
         <f>IF(Inputs!H34="","",Inputs!H34)</f>
         <v/>
       </c>
-      <c r="I28" s="200" t="str">
+      <c r="I28" s="199" t="str">
         <f>IF(Inputs!I34="","",Inputs!I34)</f>
         <v/>
       </c>
-      <c r="J28" s="200" t="str">
+      <c r="J28" s="199" t="str">
         <f>IF(Inputs!J34="","",Inputs!J34)</f>
         <v/>
       </c>
-      <c r="K28" s="200" t="str">
+      <c r="K28" s="199" t="str">
         <f>IF(Inputs!K34="","",Inputs!K34)</f>
         <v/>
       </c>
-      <c r="L28" s="200" t="str">
+      <c r="L28" s="199" t="str">
         <f>IF(Inputs!L34="","",Inputs!L34)</f>
         <v/>
       </c>
-      <c r="M28" s="200" t="str">
+      <c r="M28" s="199" t="str">
         <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
@@ -7630,43 +7635,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D29" s="200" t="str">
+      <c r="D29" s="199" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E29" s="200" t="str">
+      <c r="E29" s="199" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F29" s="200" t="str">
+      <c r="F29" s="199" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G29" s="200" t="str">
+      <c r="G29" s="199" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H29" s="200" t="str">
+      <c r="H29" s="199" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I29" s="200" t="str">
+      <c r="I29" s="199" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J29" s="200" t="str">
+      <c r="J29" s="199" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K29" s="200" t="str">
+      <c r="K29" s="199" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L29" s="200" t="str">
+      <c r="L29" s="199" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M29" s="200" t="str">
+      <c r="M29" s="199" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7681,43 +7686,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D30" s="200" t="str">
+      <c r="D30" s="199" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E30" s="200" t="str">
+      <c r="E30" s="199" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F30" s="200" t="str">
+      <c r="F30" s="199" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G30" s="200" t="str">
+      <c r="G30" s="199" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H30" s="200" t="str">
+      <c r="H30" s="199" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I30" s="200" t="str">
+      <c r="I30" s="199" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J30" s="200" t="str">
+      <c r="J30" s="199" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K30" s="200" t="str">
+      <c r="K30" s="199" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L30" s="200" t="str">
+      <c r="L30" s="199" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M30" s="200" t="str">
+      <c r="M30" s="199" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7732,43 +7737,43 @@
         <f>Fin_Analysis!I28</f>
         <v>0</v>
       </c>
-      <c r="D31" s="200" t="str">
+      <c r="D31" s="199" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E31" s="200" t="str">
+      <c r="E31" s="199" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F31" s="200" t="str">
+      <c r="F31" s="199" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G31" s="200" t="str">
+      <c r="G31" s="199" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H31" s="200" t="str">
+      <c r="H31" s="199" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I31" s="200" t="str">
+      <c r="I31" s="199" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J31" s="200" t="str">
+      <c r="J31" s="199" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K31" s="200" t="str">
+      <c r="K31" s="199" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L31" s="200" t="str">
+      <c r="L31" s="199" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M31" s="200" t="str">
+      <c r="M31" s="199" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7783,43 +7788,43 @@
         <f>Fin_Analysis!I48</f>
         <v>0</v>
       </c>
-      <c r="D32" s="200" t="str">
+      <c r="D32" s="199" t="str">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
         <v/>
       </c>
-      <c r="E32" s="200" t="str">
+      <c r="E32" s="199" t="str">
         <f>IF(Inputs!E38="","",Inputs!E38)</f>
         <v/>
       </c>
-      <c r="F32" s="200" t="str">
+      <c r="F32" s="199" t="str">
         <f>IF(Inputs!F38="","",Inputs!F38)</f>
         <v/>
       </c>
-      <c r="G32" s="200" t="str">
+      <c r="G32" s="199" t="str">
         <f>IF(Inputs!G38="","",Inputs!G38)</f>
         <v/>
       </c>
-      <c r="H32" s="200" t="str">
+      <c r="H32" s="199" t="str">
         <f>IF(Inputs!H38="","",Inputs!H38)</f>
         <v/>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="199" t="str">
         <f>IF(Inputs!I38="","",Inputs!I38)</f>
         <v/>
       </c>
-      <c r="J32" s="200" t="str">
+      <c r="J32" s="199" t="str">
         <f>IF(Inputs!J38="","",Inputs!J38)</f>
         <v/>
       </c>
-      <c r="K32" s="200" t="str">
+      <c r="K32" s="199" t="str">
         <f>IF(Inputs!K38="","",Inputs!K38)</f>
         <v/>
       </c>
-      <c r="L32" s="200" t="str">
+      <c r="L32" s="199" t="str">
         <f>IF(Inputs!L38="","",Inputs!L38)</f>
         <v/>
       </c>
-      <c r="M32" s="200" t="str">
+      <c r="M32" s="199" t="str">
         <f>IF(Inputs!M38="","",Inputs!M38)</f>
         <v/>
       </c>
@@ -7834,43 +7839,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D33" s="200" t="str">
+      <c r="D33" s="199" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E33" s="200" t="str">
+      <c r="E33" s="199" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F33" s="200" t="str">
+      <c r="F33" s="199" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G33" s="200" t="str">
+      <c r="G33" s="199" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H33" s="200" t="str">
+      <c r="H33" s="199" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="199" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J33" s="200" t="str">
+      <c r="J33" s="199" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K33" s="200" t="str">
+      <c r="K33" s="199" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="199" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M33" s="200" t="str">
+      <c r="M33" s="199" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7885,43 +7890,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D34" s="200" t="str">
+      <c r="D34" s="199" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E34" s="200" t="str">
+      <c r="E34" s="199" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F34" s="200" t="str">
+      <c r="F34" s="199" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G34" s="200" t="str">
+      <c r="G34" s="199" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H34" s="200" t="str">
+      <c r="H34" s="199" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I34" s="200" t="str">
+      <c r="I34" s="199" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J34" s="200" t="str">
+      <c r="J34" s="199" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K34" s="200" t="str">
+      <c r="K34" s="199" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L34" s="200" t="str">
+      <c r="L34" s="199" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M34" s="200" t="str">
+      <c r="M34" s="199" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7987,43 +7992,43 @@
         <f>Fin_Analysis!D3</f>
         <v>0</v>
       </c>
-      <c r="D36" s="200" t="str">
+      <c r="D36" s="199" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E36" s="200" t="str">
+      <c r="E36" s="199" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F36" s="200" t="str">
+      <c r="F36" s="199" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G36" s="200" t="str">
+      <c r="G36" s="199" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H36" s="200" t="str">
+      <c r="H36" s="199" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I36" s="200" t="str">
+      <c r="I36" s="199" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J36" s="200" t="str">
+      <c r="J36" s="199" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K36" s="200" t="str">
+      <c r="K36" s="199" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L36" s="200" t="str">
+      <c r="L36" s="199" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M36" s="200" t="str">
+      <c r="M36" s="199" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -8038,43 +8043,43 @@
         <f>Fin_Analysis!D4</f>
         <v>0</v>
       </c>
-      <c r="D37" s="200" t="str">
+      <c r="D37" s="199" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E37" s="200" t="str">
+      <c r="E37" s="199" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F37" s="200" t="str">
+      <c r="F37" s="199" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G37" s="200" t="str">
+      <c r="G37" s="199" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H37" s="200" t="str">
+      <c r="H37" s="199" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I37" s="200" t="str">
+      <c r="I37" s="199" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J37" s="200" t="str">
+      <c r="J37" s="199" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K37" s="200" t="str">
+      <c r="K37" s="199" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L37" s="200" t="str">
+      <c r="L37" s="199" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M37" s="200" t="str">
+      <c r="M37" s="199" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -8089,43 +8094,43 @@
         <f>Fin_Analysis!C63</f>
         <v>0</v>
       </c>
-      <c r="D38" s="200" t="str">
+      <c r="D38" s="199" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E38" s="200" t="str">
+      <c r="E38" s="199" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F38" s="200" t="str">
+      <c r="F38" s="199" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G38" s="200" t="str">
+      <c r="G38" s="199" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H38" s="200" t="str">
+      <c r="H38" s="199" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I38" s="200" t="str">
+      <c r="I38" s="199" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J38" s="200" t="str">
+      <c r="J38" s="199" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K38" s="200" t="str">
+      <c r="K38" s="199" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L38" s="200" t="str">
+      <c r="L38" s="199" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M38" s="200" t="str">
+      <c r="M38" s="199" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -8187,47 +8192,47 @@
       <c r="B40" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="156" t="e">
+      <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D40" s="156" t="e">
+      <c r="D40" s="155" t="e">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -8256,47 +8261,47 @@
       <c r="B42" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="157">
+      <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>0.35834792051449244</v>
       </c>
-      <c r="D42" s="157">
+      <c r="D42" s="156">
         <f t="shared" si="34"/>
         <v>0.38393437912897221</v>
       </c>
-      <c r="E42" s="157" t="str">
+      <c r="E42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F42" s="157" t="str">
+      <c r="F42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G42" s="157" t="str">
+      <c r="G42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H42" s="157" t="str">
+      <c r="H42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I42" s="157" t="str">
+      <c r="I42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J42" s="157" t="str">
+      <c r="J42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K42" s="157" t="str">
+      <c r="K42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L42" s="157" t="str">
+      <c r="L42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M42" s="157" t="str">
+      <c r="M42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8307,47 +8312,47 @@
       <c r="B43" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.74823479113580682</v>
       </c>
-      <c r="D43" s="154">
+      <c r="D43" s="153">
         <f t="shared" si="35"/>
         <v>0.78629236200896513</v>
       </c>
-      <c r="E43" s="154" t="str">
+      <c r="E43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F43" s="154" t="str">
+      <c r="F43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G43" s="154" t="str">
+      <c r="G43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H43" s="154" t="str">
+      <c r="H43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I43" s="154" t="str">
+      <c r="I43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J43" s="154" t="str">
+      <c r="J43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K43" s="154" t="str">
+      <c r="K43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L43" s="154" t="str">
+      <c r="L43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M43" s="154" t="str">
+      <c r="M43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -8358,47 +8363,47 @@
       <c r="B44" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="154">
+      <c r="D44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E44" s="154" t="str">
+      <c r="E44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F44" s="154" t="str">
+      <c r="F44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G44" s="154" t="str">
+      <c r="G44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H44" s="154" t="str">
+      <c r="H44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I44" s="154" t="str">
+      <c r="I44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J44" s="154" t="str">
+      <c r="J44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K44" s="154" t="str">
+      <c r="K44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L44" s="154" t="str">
+      <c r="L44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M44" s="154" t="str">
+      <c r="M44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -8409,47 +8414,47 @@
       <c r="B45" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>3.8655956702792868E-3</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="153">
         <f t="shared" si="37"/>
         <v>1.5744684961411033E-3</v>
       </c>
-      <c r="E45" s="154" t="str">
+      <c r="E45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F45" s="154" t="str">
+      <c r="F45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G45" s="154" t="str">
+      <c r="G45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H45" s="154" t="str">
+      <c r="H45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I45" s="154" t="str">
+      <c r="I45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J45" s="154" t="str">
+      <c r="J45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K45" s="154" t="str">
+      <c r="K45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L45" s="154" t="str">
+      <c r="L45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M45" s="154" t="str">
+      <c r="M45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -8460,47 +8465,47 @@
       <c r="B46" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D46" s="154">
+      <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="154" t="str">
+      <c r="E46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F46" s="154" t="str">
+      <c r="F46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G46" s="154" t="str">
+      <c r="G46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H46" s="154" t="str">
+      <c r="H46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I46" s="154" t="str">
+      <c r="I46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J46" s="154" t="str">
+      <c r="J46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K46" s="154" t="str">
+      <c r="K46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L46" s="154" t="str">
+      <c r="L46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M46" s="154" t="str">
+      <c r="M46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -8511,47 +8516,47 @@
       <c r="B47" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="154">
+      <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="154">
+      <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="154" t="str">
+      <c r="E47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F47" s="154" t="str">
+      <c r="F47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G47" s="154" t="str">
+      <c r="G47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H47" s="154" t="str">
+      <c r="H47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I47" s="154" t="str">
+      <c r="I47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J47" s="154" t="str">
+      <c r="J47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K47" s="154" t="str">
+      <c r="K47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L47" s="154" t="str">
+      <c r="L47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M47" s="154" t="str">
+      <c r="M47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -8562,47 +8567,47 @@
       <c r="B48" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="154">
+      <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>-0.11044830732057855</v>
       </c>
-      <c r="D48" s="154">
+      <c r="D48" s="153">
         <f t="shared" si="40"/>
         <v>-0.17180120963407838</v>
       </c>
-      <c r="E48" s="154" t="str">
+      <c r="E48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F48" s="154" t="str">
+      <c r="F48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G48" s="154" t="str">
+      <c r="G48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H48" s="154" t="str">
+      <c r="H48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I48" s="154" t="str">
+      <c r="I48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J48" s="154" t="str">
+      <c r="J48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K48" s="154" t="str">
+      <c r="K48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L48" s="154" t="str">
+      <c r="L48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M48" s="154" t="str">
+      <c r="M48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8631,47 +8636,47 @@
       <c r="B50" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="157">
+      <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="157" t="str">
+      <c r="D50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="157" t="str">
+      <c r="E50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="157" t="str">
+      <c r="F50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="157" t="str">
+      <c r="G50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="157" t="str">
+      <c r="H50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="157" t="str">
+      <c r="I50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="157" t="str">
+      <c r="J50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="157" t="str">
+      <c r="K50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="157" t="str">
+      <c r="L50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M50" s="157" t="str">
+      <c r="M50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8682,47 +8687,47 @@
       <c r="B51" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="154">
+      <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>0</v>
       </c>
-      <c r="D51" s="154" t="str">
+      <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E51" s="154" t="str">
+      <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F51" s="154" t="str">
+      <c r="F51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G51" s="154" t="str">
+      <c r="G51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H51" s="154" t="str">
+      <c r="H51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I51" s="154" t="str">
+      <c r="I51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J51" s="154" t="str">
+      <c r="J51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K51" s="154" t="str">
+      <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L51" s="154" t="str">
+      <c r="L51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M51" s="154" t="str">
+      <c r="M51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8750,47 +8755,47 @@
       <c r="B53" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="157" t="e">
+      <c r="C53" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="157" t="str">
+      <c r="D53" s="156" t="str">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
         <v/>
       </c>
-      <c r="E53" s="157" t="str">
+      <c r="E53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F53" s="157" t="str">
+      <c r="F53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G53" s="157" t="str">
+      <c r="G53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H53" s="157" t="str">
+      <c r="H53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I53" s="157" t="str">
+      <c r="I53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J53" s="157" t="str">
+      <c r="J53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K53" s="157" t="str">
+      <c r="K53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L53" s="157" t="str">
+      <c r="L53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M53" s="157" t="str">
+      <c r="M53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8800,47 +8805,47 @@
       <c r="B54" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="158" t="str">
+      <c r="C54" s="157" t="str">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="158" t="str">
+      <c r="D54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="158" t="str">
+      <c r="E54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="158" t="str">
+      <c r="F54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="158" t="str">
+      <c r="G54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="158" t="str">
+      <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="158" t="str">
+      <c r="I54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="158" t="str">
+      <c r="J54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="158" t="str">
+      <c r="K54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="158" t="str">
+      <c r="L54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="158" t="str">
+      <c r="M54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8850,47 +8855,47 @@
       <c r="B55" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="154">
+      <c r="C55" s="153">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>-3.4999139091007644E-2</v>
       </c>
-      <c r="D55" s="154">
+      <c r="D55" s="153">
         <f t="shared" si="45"/>
         <v>-9.1644785243048289E-3</v>
       </c>
-      <c r="E55" s="154" t="str">
+      <c r="E55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="154" t="str">
+      <c r="F55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="154" t="str">
+      <c r="G55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="154" t="str">
+      <c r="H55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="154" t="str">
+      <c r="I55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="154" t="str">
+      <c r="J55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="154" t="str">
+      <c r="K55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="154" t="str">
+      <c r="L55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="154" t="str">
+      <c r="M55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8900,47 +8905,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="159" t="e">
+      <c r="C56" s="158" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="159" t="str">
+      <c r="D56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E56" s="159" t="str">
+      <c r="E56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="159" t="str">
+      <c r="F56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="159" t="str">
+      <c r="G56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="159" t="str">
+      <c r="H56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="159" t="str">
+      <c r="I56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="159" t="str">
+      <c r="J56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="159" t="str">
+      <c r="K56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="159" t="str">
+      <c r="L56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="159" t="str">
+      <c r="M56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -10238,8 +10243,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10288,7 +10293,7 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <f>Inputs!C83</f>
         <v>0</v>
       </c>
@@ -10385,7 +10390,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
@@ -10432,7 +10437,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10460,7 +10465,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10488,7 +10493,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="198">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10516,7 +10521,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="198">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10529,7 +10534,7 @@
       <c r="H14" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="206">
+      <c r="I14" s="205">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10544,7 +10549,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="199">
+      <c r="D15" s="198">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10571,7 +10576,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10593,7 +10598,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10615,7 +10620,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="198">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10636,7 +10641,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10661,7 +10666,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="199">
+      <c r="D20" s="198">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10688,7 +10693,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10709,7 +10714,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="199">
+      <c r="D22" s="198">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10874,7 +10879,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="206">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10903,7 +10908,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10929,7 +10934,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10956,7 +10961,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10983,7 +10988,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="199">
+      <c r="D33" s="198">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10999,7 +11004,7 @@
       <c r="H33" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="206">
+      <c r="I33" s="205">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -11013,7 +11018,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -11040,7 +11045,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -11066,7 +11071,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -11093,7 +11098,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="198">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -11120,7 +11125,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="198">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -11141,7 +11146,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="198">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -11162,7 +11167,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="198">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -11183,7 +11188,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="198">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -11204,7 +11209,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -11350,7 +11355,7 @@
       <c r="H48" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="I48" s="208">
+      <c r="I48" s="207">
         <f>Inputs!C82</f>
         <v>0</v>
       </c>
@@ -11459,11 +11464,11 @@
         <v>89</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11474,11 +11479,11 @@
         <v>90</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11490,11 +11495,11 @@
         <v>92</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11590,8 +11595,8 @@
       <c r="B64" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11671,8 +11676,8 @@
       <c r="B69" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
         <v>0</v>
@@ -11708,19 +11713,19 @@
       <c r="B72" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="270">
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11730,18 +11735,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="I73" s="271"/>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11752,17 +11757,17 @@
         <f>Data!C6</f>
         <v>5679073</v>
       </c>
-      <c r="D74" s="210"/>
-      <c r="E74" s="239">
+      <c r="D74" s="209"/>
+      <c r="E74" s="238">
         <f>Inputs!E91</f>
         <v>5679073</v>
       </c>
-      <c r="F74" s="210"/>
-      <c r="H74" s="239">
+      <c r="F74" s="209"/>
+      <c r="H74" s="238">
         <f>Inputs!F91</f>
         <v>5679073</v>
       </c>
-      <c r="I74" s="210"/>
+      <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11773,23 +11778,23 @@
         <f>Data!C8</f>
         <v>2035084</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="159">
         <f>C75/$C$74</f>
         <v>0.35834792051449244</v>
       </c>
-      <c r="E75" s="239">
+      <c r="E75" s="238">
         <f>Inputs!E92</f>
         <v>2035084</v>
       </c>
-      <c r="F75" s="161">
+      <c r="F75" s="160">
         <f>E75/E74</f>
         <v>0.35834792051449244</v>
       </c>
-      <c r="H75" s="239">
+      <c r="H75" s="238">
         <f>Inputs!F92</f>
         <v>2035084</v>
       </c>
-      <c r="I75" s="161">
+      <c r="I75" s="160">
         <f>H75/$H$74</f>
         <v>0.35834792051449244</v>
       </c>
@@ -11799,21 +11804,21 @@
       <c r="B76" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="162">
+      <c r="C76" s="161">
         <f>C74-C75</f>
         <v>3643989</v>
       </c>
-      <c r="D76" s="211"/>
-      <c r="E76" s="163">
+      <c r="D76" s="210"/>
+      <c r="E76" s="162">
         <f>E74-E75</f>
         <v>3643989</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="H76" s="163">
+      <c r="F76" s="210"/>
+      <c r="H76" s="162">
         <f>H74-H75</f>
         <v>3643989</v>
       </c>
-      <c r="I76" s="211"/>
+      <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11824,23 +11829,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>4249280</v>
       </c>
-      <c r="D77" s="160">
+      <c r="D77" s="159">
         <f>C77/$C$74</f>
         <v>0.74823479113580682</v>
       </c>
-      <c r="E77" s="239">
+      <c r="E77" s="238">
         <f>Inputs!E93</f>
         <v>4249280</v>
       </c>
-      <c r="F77" s="161">
+      <c r="F77" s="160">
         <f>E77/E74</f>
         <v>0.74823479113580682</v>
       </c>
-      <c r="H77" s="239">
+      <c r="H77" s="238">
         <f>Inputs!F93</f>
         <v>4249280</v>
       </c>
-      <c r="I77" s="161">
+      <c r="I77" s="160">
         <f>H77/$H$74</f>
         <v>0.74823479113580682</v>
       </c>
@@ -11854,54 +11859,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="181">
+      <c r="E78" s="180">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="161">
+      <c r="F78" s="160">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="239">
+      <c r="H78" s="238">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="161">
+      <c r="I78" s="160">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="256" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="258">
+      <c r="C79" s="257">
         <f>C76-C77-C78</f>
         <v>-605291</v>
       </c>
-      <c r="D79" s="259">
+      <c r="D79" s="258">
         <f>C79/C74</f>
         <v>-0.10658271165029927</v>
       </c>
-      <c r="E79" s="260">
+      <c r="E79" s="259">
         <f>E76-E77-E78</f>
         <v>-605291</v>
       </c>
-      <c r="F79" s="259">
+      <c r="F79" s="258">
         <f>E79/E74</f>
         <v>-0.10658271165029927</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="260">
+      <c r="G79" s="260"/>
+      <c r="H79" s="259">
         <f>H76-H77-H78</f>
         <v>-605291</v>
       </c>
-      <c r="I79" s="259">
+      <c r="I79" s="258">
         <f>H79/H74</f>
         <v>-0.10658271165029927</v>
       </c>
@@ -11915,27 +11920,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="181">
+      <c r="E80" s="180">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="161">
+      <c r="F80" s="160">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="239">
+      <c r="H80" s="238">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="161">
+      <c r="I80" s="160">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="182" t="s">
+      <c r="K80" s="181" t="s">
         <v>131</v>
       </c>
     </row>
@@ -11947,23 +11952,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>21953</v>
       </c>
-      <c r="D81" s="160">
+      <c r="D81" s="159">
         <f>C81/$C$74</f>
         <v>3.8655956702792868E-3</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="180">
         <f>E74*F81</f>
         <v>21953</v>
       </c>
-      <c r="F81" s="161">
+      <c r="F81" s="160">
         <f>I81</f>
         <v>3.8655956702792868E-3</v>
       </c>
-      <c r="H81" s="239">
+      <c r="H81" s="238">
         <f>Inputs!F94</f>
         <v>21953</v>
       </c>
-      <c r="I81" s="161">
+      <c r="I81" s="160">
         <f>H81/$H$74</f>
         <v>3.8655956702792868E-3</v>
       </c>
@@ -11977,23 +11982,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="160">
+      <c r="D82" s="159">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="239">
+      <c r="E82" s="238">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="161">
+      <c r="F82" s="160">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="239">
+      <c r="H82" s="238">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="161">
+      <c r="I82" s="160">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -12003,27 +12008,27 @@
       <c r="B83" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="164">
+      <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
         <v>-627244</v>
       </c>
-      <c r="D83" s="165">
+      <c r="D83" s="164">
         <f>C83/$C$74</f>
         <v>-0.11044830732057855</v>
       </c>
-      <c r="E83" s="166">
+      <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
         <v>-627244</v>
       </c>
-      <c r="F83" s="165">
+      <c r="F83" s="164">
         <f>E83/E74</f>
         <v>-0.11044830732057855</v>
       </c>
-      <c r="H83" s="166">
+      <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
         <v>-627244</v>
       </c>
-      <c r="I83" s="165">
+      <c r="I83" s="164">
         <f>H83/$H$74</f>
         <v>-0.11044830732057855</v>
       </c>
@@ -12033,49 +12038,49 @@
       <c r="B84" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="160">
+      <c r="C84" s="211"/>
+      <c r="D84" s="159">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="213"/>
-      <c r="F84" s="180">
+      <c r="E84" s="212"/>
+      <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="213"/>
-      <c r="I84" s="203">
+      <c r="H84" s="212"/>
+      <c r="I84" s="202">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="263" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="258">
+      <c r="C85" s="257">
         <f>C83*(1-I84)</f>
         <v>-470433</v>
       </c>
-      <c r="D85" s="259">
+      <c r="D85" s="258">
         <f>C85/$C$74</f>
         <v>-8.2836230490433913E-2</v>
       </c>
-      <c r="E85" s="265">
+      <c r="E85" s="264">
         <f>E83*(1-F84)</f>
         <v>-470433</v>
       </c>
-      <c r="F85" s="259">
+      <c r="F85" s="258">
         <f>E85/E74</f>
         <v>-8.2836230490433913E-2</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="265">
+      <c r="G85" s="260"/>
+      <c r="H85" s="264">
         <f>H83*(1-I84)</f>
         <v>-470433</v>
       </c>
-      <c r="I85" s="259">
+      <c r="I85" s="258">
         <f>H85/$H$74</f>
         <v>-8.2836230490433913E-2</v>
       </c>
@@ -12085,69 +12090,69 @@
       <c r="B86" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="168">
+      <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
         <v>-0.13119133251023296</v>
       </c>
-      <c r="D86" s="210"/>
-      <c r="E86" s="169">
+      <c r="D86" s="209"/>
+      <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
         <v>-0.13119133251023296</v>
       </c>
-      <c r="F86" s="210"/>
-      <c r="H86" s="169">
+      <c r="F86" s="209"/>
+      <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
         <v>-0.13119133251023296</v>
       </c>
-      <c r="I86" s="210"/>
+      <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="262">
+      <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.6078834939210102E-2</v>
-      </c>
-      <c r="D87" s="210"/>
-      <c r="E87" s="263">
+        <v>-1.565263615064293E-2</v>
+      </c>
+      <c r="D87" s="209"/>
+      <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.6078834939210102E-2</v>
-      </c>
-      <c r="F87" s="210"/>
-      <c r="H87" s="263">
+        <v>-1.565263615064293E-2</v>
+      </c>
+      <c r="F87" s="209"/>
+      <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.6078834939210102E-2</v>
-      </c>
-      <c r="I87" s="210"/>
+        <v>-1.565263615064293E-2</v>
+      </c>
+      <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C88" s="170">
+      <c r="C88" s="169">
         <f>Inputs!C44</f>
         <v>0</v>
       </c>
-      <c r="D88" s="167">
+      <c r="D88" s="166">
         <f>C88/C86</f>
         <v>0</v>
       </c>
-      <c r="E88" s="171">
+      <c r="E88" s="170">
         <f>Inputs!E98</f>
         <v>0</v>
       </c>
-      <c r="F88" s="167">
+      <c r="F88" s="166">
         <f>E88/E86</f>
         <v>0</v>
       </c>
-      <c r="H88" s="171">
+      <c r="H88" s="170">
         <f>Inputs!F98</f>
         <v>0</v>
       </c>
-      <c r="I88" s="167">
+      <c r="I88" s="166">
         <f>H88/H86</f>
         <v>0</v>
       </c>
@@ -12157,21 +12162,21 @@
       <c r="B89" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="C89" s="262">
+      <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="D89" s="210"/>
-      <c r="E89" s="262">
+      <c r="D89" s="209"/>
+      <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="F89" s="210"/>
-      <c r="H89" s="262">
+      <c r="F89" s="209"/>
+      <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="I89" s="210"/>
+      <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12193,22 +12198,22 @@
       <c r="B92" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="199" t="str">
+      <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E92" s="284" t="s">
+      <c r="E92" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F92" s="284"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
+      <c r="H92" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I92" s="284"/>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12218,9 +12223,9 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D93" s="240">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
@@ -12228,15 +12233,15 @@
         <v>209</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>-1.8802476429329227</v>
+        <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
+        <v>-1.8041524943786833</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>-1.8802476429329227</v>
+        <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
+        <v>-1.8041524943786833</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12244,23 +12249,26 @@
       <c r="B94" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C94" s="183">
+      <c r="C94" s="182">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="145"/>
+      <c r="D94" s="270">
+        <f>Inputs!D87</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
+        <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
+        <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="K94" s="24"/>
@@ -12282,14 +12290,14 @@
       <c r="D96" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E96" s="184" t="str">
+      <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="228" t="s">
+      <c r="F96" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H96" s="184" t="str">
+      <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
@@ -12304,21 +12312,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-3352111.739699991</v>
-      </c>
-      <c r="D97" s="214"/>
+        <v>-3216449.0562435756</v>
+      </c>
+      <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.93481538466569514</v>
-      </c>
-      <c r="F97" s="214"/>
+        <v>-0.89698264713546005</v>
+      </c>
+      <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.93481538466569514</v>
+        <v>-0.89698264713546005</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-1.3468726276254761</v>
+        <v>-1.274381083537039</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12330,14 +12338,14 @@
         <f>E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
-      <c r="F98" s="214"/>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="216"/>
+      <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12348,17 +12356,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="215"/>
-      <c r="E99" s="146">
+      <c r="D99" s="214"/>
+      <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="215"/>
-      <c r="H99" s="146">
+      <c r="F99" s="214"/>
+      <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="217"/>
+      <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -12367,7 +12375,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-3352111.739699991</v>
+        <v>-3216449.0562435756</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12406,14 +12414,14 @@
       <c r="D102" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E102" s="184" t="str">
+      <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="228" t="s">
+      <c r="F102" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H102" s="184" t="str">
+      <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12467,14 +12475,14 @@
       <c r="D105" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E105" s="185" t="str">
+      <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="228" t="s">
+      <c r="F105" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H105" s="185" t="str">
+      <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>

--- a/financial_models/opportunities/0268.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0268.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EF2A6D7-3B69-4089-93CB-BD4E922C35F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A726BAF-AD9F-4C4D-AB30-1826A4449717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3580,7 +3580,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -4581,7 +4581,9 @@
       <c r="C87" s="236" t="s">
         <v>251</v>
       </c>
-      <c r="D87" s="269"/>
+      <c r="D87" s="269">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
@@ -4893,7 +4895,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>8.98</v>
+        <v>9.25</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -4934,7 +4936,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>32200.97135358</v>
+        <v>33169.152006750002</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4983,7 +4985,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0714173714319866</v>
+        <v>1.0691539843877156</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5029,10 +5031,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="172">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5079,7 +5081,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5166,7 +5168,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-63.887002187738524</v>
+        <v>-65.947195421513015</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12113,17 +12115,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.565263615064293E-2</v>
+        <v>-1.5163647121129645E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.565263615064293E-2</v>
+        <v>-1.5163647121129645E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.565263615064293E-2</v>
+        <v>-1.5163647121129645E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12223,7 +12225,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12234,14 +12236,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-1.8041524943786833</v>
+        <v>-1.8048173670059922</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-1.8041524943786833</v>
+        <v>-1.8048173670059922</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12255,7 +12257,7 @@
       </c>
       <c r="D94" s="270">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
@@ -12312,21 +12314,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-3216449.0562435756</v>
+        <v>-3217634.3933707266</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.89698264713546005</v>
+        <v>-0.89731320633769462</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.89698264713546005</v>
+        <v>-0.89731320633769462</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-1.274381083537039</v>
+        <v>-1.16230490220865</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12375,7 +12377,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-3216449.0562435756</v>
+        <v>-3217634.3933707266</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>

--- a/financial_models/opportunities/0268.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0268.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A726BAF-AD9F-4C4D-AB30-1826A4449717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{869D31A8-BEDF-4970-8A19-C2BDBDF75F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4895,7 +4895,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>9.25</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>33169.152006750002</v>
+        <v>35679.249996449995</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4985,7 +4985,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691539843877156</v>
+        <v>1.0706016620000203</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5168,7 +5168,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-65.947195421513015</v>
+        <v>-70.841871243337494</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12115,17 +12115,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.5163647121129645E-2</v>
+        <v>-1.411594559049776E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.5163647121129645E-2</v>
+        <v>-1.411594559049776E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.5163647121129645E-2</v>
+        <v>-1.411594559049776E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12236,14 +12236,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-1.8048173670059922</v>
+        <v>-1.8168947592030831</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-1.8048173670059922</v>
+        <v>-1.8168947592030831</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12314,21 +12314,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-3217634.3933707266</v>
+        <v>-3239166.008273155</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.89731320633769462</v>
+        <v>-0.90331780476116141</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.89731320633769462</v>
+        <v>-0.90331780476116141</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-1.16230490220865</v>
+        <v>-1.1700827596324526</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12377,7 +12377,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-3217634.3933707266</v>
+        <v>-3239166.008273155</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>

--- a/financial_models/opportunities/0268.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0268.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{869D31A8-BEDF-4970-8A19-C2BDBDF75F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68E5BBB6-E6A0-485A-8652-35F9932FA8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -938,6 +938,17 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>0268.HK</t>
   </si>
   <si>
@@ -948,9 +959,6 @@
   </si>
   <si>
     <t>CNY</t>
-  </si>
-  <si>
-    <t>CN</t>
   </si>
   <si>
     <t>Strongly agree</t>
@@ -3580,7 +3588,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3601,7 +3609,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3609,7 +3617,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3642,7 +3650,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3658,7 +3666,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3690,7 +3698,7 @@
         <v>256</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3707,7 +3715,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3725,7 +3733,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3734,7 +3742,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3743,7 +3751,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3752,7 +3760,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4278,7 +4286,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>117</v>
+        <v>262</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4390,7 +4398,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4895,10 +4903,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>9.9499999999999993</v>
+        <v>9.68</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4936,7 +4944,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>35679.249996449995</v>
+        <v>34711.069343279996</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4985,7 +4993,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0706016620000203</v>
+        <v>1.0711092948913574</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5031,10 +5039,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5081,7 +5089,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5168,7 +5176,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-70.841871243337494</v>
+        <v>-68.886865843455354</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12115,17 +12123,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.411594559049776E-2</v>
+        <v>-1.4516555336869137E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.411594559049776E-2</v>
+        <v>-1.4516555336869137E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.411594559049776E-2</v>
+        <v>-1.4516555336869137E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12225,7 +12233,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12236,14 +12244,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-1.8168947592030831</v>
+        <v>-2.1588885400968443</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-1.8168947592030831</v>
+        <v>-2.1588885400968443</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12314,21 +12322,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-3239166.008273155</v>
+        <v>-3848873.6561711403</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.90331780476116141</v>
+        <v>-1.0733491562382402</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.90331780476116141</v>
+        <v>-1.0733491562382402</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-1.1700827596324526</v>
+        <v>-1.4659068184361903</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12377,7 +12385,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-3239166.008273155</v>
+        <v>-3848873.6561711403</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>

--- a/financial_models/opportunities/0268.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0268.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68E5BBB6-E6A0-485A-8652-35F9932FA8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D233E777-77F3-479A-9848-E6B8B11F6D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -946,6 +946,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3587,7 +3591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3609,7 +3613,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3617,7 +3621,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3650,7 +3654,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3666,7 +3670,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3715,7 +3719,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3733,7 +3737,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3742,7 +3746,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3751,7 +3755,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3760,7 +3764,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4903,10 +4907,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>9.68</v>
+        <v>9.5</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4944,7 +4948,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>34711.069343279996</v>
+        <v>34065.6155745</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4993,7 +4997,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0711092948913574</v>
+        <v>1.0703092813491821</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5014,7 +5018,7 @@
         <v>175</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>182</v>
@@ -5025,7 +5029,7 @@
         <v>179</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>189</v>
@@ -5052,7 +5056,7 @@
         <v>176</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>181</v>
@@ -5176,7 +5180,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-68.886865843455354</v>
+        <v>-67.656444451842688</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5286,8 +5290,8 @@
         <v>225</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6313,12 +6317,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8744,118 +8748,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>263</v>
+      </c>
+      <c r="C52" s="153" t="e">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="156" t="e">
+      <c r="C54" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="157" t="str">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
+        <v/>
+      </c>
+      <c r="E54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8863,107 +8868,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="153">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>-3.4999139091007644E-2</v>
-      </c>
-      <c r="D55" s="153">
+        <v>120</v>
+      </c>
+      <c r="C55" s="157" t="str">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>-9.1644785243048289E-3</v>
-      </c>
-      <c r="E55" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="153">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>-3.4999139091007644E-2</v>
+      </c>
+      <c r="D56" s="153">
+        <f t="shared" si="46"/>
+        <v>-9.1644785243048289E-3</v>
+      </c>
+      <c r="E56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158" t="e">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158" t="e">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="D57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="E57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9531,7 +9583,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10214,6 +10268,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -12123,17 +12178,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.4516555336869137E-2</v>
+        <v>-1.4780557980870425E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.4516555336869137E-2</v>
+        <v>-1.4780557980870425E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.4516555336869137E-2</v>
+        <v>-1.4780557980870425E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12244,14 +12299,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-2.1588885400968443</v>
+        <v>-2.1543880303039296</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-2.1588885400968443</v>
+        <v>-2.1543880303039296</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12322,21 +12377,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-3848873.6561711403</v>
+        <v>-3840850.1323719388</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-1.0733491562382402</v>
+        <v>-1.0711116074722209</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-1.0733491562382402</v>
+        <v>-1.0711116074722209</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-1.4659068184361903</v>
+        <v>-1.4628509274676011</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12385,7 +12440,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>-3848873.6561711403</v>
+        <v>-3840850.1323719388</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>

--- a/financial_models/opportunities/0268.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0268.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D233E777-77F3-479A-9848-E6B8B11F6D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{408F72CB-5652-448A-A3F6-49C2414F44C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4907,7 +4907,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>9.5</v>
+        <v>9.58</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4948,7 +4948,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>34065.6155745</v>
+        <v>34352.483916179997</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4997,7 +4997,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0703092813491821</v>
+        <v>1.0699092944463093</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5180,7 +5180,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-67.656444451842688</v>
+        <v>-68.251689373662899</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10308,8 +10308,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12178,17 +12178,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.4780557980870425E-2</v>
+        <v>-1.4651651983663309E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.4780557980870425E-2</v>
+        <v>-1.4651651983663309E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.4780557980870425E-2</v>
+        <v>-1.4651651983663309E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12299,14 +12299,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-2.1543880303039296</v>
+        <v>-2.1549921520991062</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-2.1543880303039296</v>
+        <v>-2.1549921520991062</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12377,21 +12377,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-3840850.1323719388</v>
+        <v>-3841927.16271389</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-1.0711116074722209</v>
+        <v>-1.0714119627740695</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-1.0711116074722209</v>
+        <v>-1.0714119627740695</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-1.4628509274676011</v>
+        <v>-1.4632611321827902</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12400,7 +12400,7 @@
         <v>144</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
+        <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D98" s="213"/>
@@ -12439,15 +12439,15 @@
         <v>114</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>-3840850.1323719388</v>
+        <f>C97+C98+$C$99</f>
+        <v>-3841927.16271389</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
         <v>0</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
+        <f>MAX(E97+H98+E99,0)</f>
         <v>0</v>
       </c>
       <c r="F100" s="109">
@@ -12459,7 +12459,7 @@
         <v>0</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
+        <f>MAX(I97+H98+H99,0)</f>
         <v>0</v>
       </c>
       <c r="K100" s="24"/>

--- a/financial_models/opportunities/0268.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0268.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{408F72CB-5652-448A-A3F6-49C2414F44C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8F8699F-15C0-49BC-9BE8-904161C0C29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4907,7 +4907,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>9.58</v>
+        <v>9.26</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4948,7 +4948,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>34352.483916179997</v>
+        <v>33205.010549459999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4997,7 +4997,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0699092944463093</v>
+        <v>1.0702606836954753</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5180,7 +5180,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-68.251689373662899</v>
+        <v>-65.950223499026421</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12178,17 +12178,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.4651651983663309E-2</v>
+        <v>-1.5162950888479739E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.4651651983663309E-2</v>
+        <v>-1.5162950888479739E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.4651651983663309E-2</v>
+        <v>-1.5162950888479739E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12299,14 +12299,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-2.1549921520991062</v>
+        <v>-2.1501127339960071</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-2.1549921520991062</v>
+        <v>-2.1501127339960071</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12377,21 +12377,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-3841927.16271389</v>
+        <v>-3833228.1199214254</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-1.0714119627740695</v>
+        <v>-1.0689860296114151</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-1.0714119627740695</v>
+        <v>-1.0689860296114151</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-1.4632611321827902</v>
+        <v>-1.4599479586981539</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12440,7 +12440,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-3841927.16271389</v>
+        <v>-3833228.1199214254</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>

--- a/financial_models/opportunities/0268.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0268.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8F8699F-15C0-49BC-9BE8-904161C0C29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AB2E762-9546-45C5-A595-650A90DE4D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4907,7 +4907,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>9.26</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4948,7 +4948,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>33205.010549459999</v>
+        <v>33312.586177589998</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4997,7 +4997,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0702606836954753</v>
+        <v>1.0701607068379719</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5043,10 +5043,10 @@
         <v>254</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5093,7 +5093,7 @@
         <v>255</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5180,7 +5180,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-65.950223499026421</v>
+        <v>-66.170066311501401</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12178,17 +12178,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.5162950888479739E-2</v>
+        <v>-1.5112573641567957E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.5162950888479739E-2</v>
+        <v>-1.5112573641567957E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.5162950888479739E-2</v>
+        <v>-1.5112573641567957E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12288,7 +12288,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12299,14 +12299,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-2.1501127339960071</v>
+        <v>-1.9638179561160505</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-2.1501127339960071</v>
+        <v>-1.9638179561160505</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12377,21 +12377,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-3833228.1199214254</v>
+        <v>-3501101.1714721764</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-1.0689860296114151</v>
+        <v>-0.97636460014193827</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-1.0689860296114151</v>
+        <v>-0.97636460014193827</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-1.4599479586981539</v>
+        <v>-1.2985308724118116</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12440,7 +12440,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-3833228.1199214254</v>
+        <v>-3501101.1714721764</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>

--- a/financial_models/opportunities/0268.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0268.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AB2E762-9546-45C5-A595-650A90DE4D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F706AE10-FDFC-49CD-9B1C-8F563882B339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4907,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>9.2899999999999991</v>
+        <v>9.06</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4948,7 +4959,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>33312.586177589998</v>
+        <v>32487.839695260001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4997,7 +5008,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0701607068379719</v>
+        <v>1.0691930055618286</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5180,7 +5191,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-66.170066311501401</v>
+        <v>-64.590247014400788</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12178,17 +12189,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.5112573641567957E-2</v>
+        <v>-1.548221358833082E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.5112573641567957E-2</v>
+        <v>-1.548221358833082E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.5112573641567957E-2</v>
+        <v>-1.548221358833082E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12299,14 +12310,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-1.9638179561160505</v>
+        <v>-1.9583630322788086</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-1.9638179561160505</v>
+        <v>-1.9583630322788086</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12377,21 +12388,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-3501101.1714721764</v>
+        <v>-3491376.1151463701</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.97636460014193827</v>
+        <v>-0.97365253891723758</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.97636460014193827</v>
+        <v>-0.97365253891723758</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-1.2985308724118116</v>
+        <v>-1.2949239255523772</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12440,7 +12451,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-3501101.1714721764</v>
+        <v>-3491376.1151463701</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>

--- a/financial_models/opportunities/0268.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0268.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F706AE10-FDFC-49CD-9B1C-8F563882B339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67D789DD-8671-4A41-921D-D1C6EC0C9799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -126,15 +123,9 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
   </si>
   <si>
-    <t>Orderly Liquidation Value per Shares =</t>
-  </si>
-  <si>
     <t>Book Quick Ratio</t>
   </si>
   <si>
@@ -449,10 +440,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -549,10 +536,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -917,10 +900,6 @@
     <t>Profit</t>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -961,6 +940,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1546,7 +1561,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2186,6 +2201,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3602,7 +3627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3616,28 +3641,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="189">
         <v>45603</v>
@@ -3653,24 +3678,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" s="193">
         <v>3585854271</v>
@@ -3678,10 +3703,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3702,7 +3727,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3710,15 +3735,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3727,61 +3752,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3850,7 +3875,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="150">
         <v>2035084</v>
@@ -3870,7 +3895,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="150">
         <v>2809609</v>
@@ -3890,7 +3915,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="150">
         <v>1439671</v>
@@ -3910,7 +3935,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C29" s="150">
         <v>21953</v>
@@ -3930,7 +3955,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="150">
         <v>-59916</v>
@@ -3950,7 +3975,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="150"/>
       <c r="D31" s="150"/>
@@ -3966,7 +3991,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="150"/>
       <c r="D32" s="150"/>
@@ -3982,7 +4007,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="150"/>
       <c r="D33" s="150"/>
@@ -4014,7 +4039,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4030,7 +4055,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4062,7 +4087,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -4110,7 +4135,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150"/>
@@ -4126,7 +4151,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>138</v>
+        <v>258</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4142,7 +4167,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4158,7 +4183,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" s="250">
         <v>0</v>
@@ -4176,7 +4201,7 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4225,21 +4250,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4249,7 +4274,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4259,7 +4284,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4270,7 +4295,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4280,7 +4305,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4290,7 +4315,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4301,7 +4326,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4311,7 +4336,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4322,7 +4347,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4330,24 +4355,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4358,7 +4383,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4369,7 +4394,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4380,7 +4405,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4391,7 +4416,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4402,7 +4427,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4413,7 +4438,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4423,31 +4448,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4455,12 +4480,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4471,7 +4496,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4482,7 +4507,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4492,7 +4517,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4503,7 +4528,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C72" s="247"/>
       <c r="D72" s="248">
@@ -4513,25 +4538,25 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4543,55 +4568,55 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4599,10 +4624,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4610,18 +4635,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="271">
+        <v>123</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4630,20 +4655,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4661,7 +4686,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4682,7 +4707,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4703,7 +4728,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4721,7 +4746,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4742,7 +4767,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4760,7 +4785,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4778,7 +4803,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4906,62 +4931,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>189</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>0268.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>9.06</v>
+        <v>9.02</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>190</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>金蝶国际</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>3585854271</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="281">
+        <v>158</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="275">
+        <v>96</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>32487.839695260001</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>32344.405524419999</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4984,16 +5009,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5008,7 +5033,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691930055618286</v>
+        <v>1.0692596832911174</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5018,40 +5043,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5064,29 +5089,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5096,12 +5121,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5111,29 +5136,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.35834792051449244</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5141,7 +5166,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5152,26 +5177,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>0</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5180,30 +5205,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>3.8655956702792868E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-64.590247014400788</v>
+        <v>-64.301070374560339</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5212,14 +5237,14 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>-0.11044830732057855</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
@@ -5233,23 +5258,23 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>258</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>232</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
@@ -5264,31 +5289,31 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="274">
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="274"/>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5298,25 +5323,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5326,7 +5351,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5336,14 +5361,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5353,7 +5378,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5368,14 +5393,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6328,12 +6353,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6360,16 +6385,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>199</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>204</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6387,7 +6412,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6420,7 +6445,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6431,7 +6456,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6583,7 +6608,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6634,7 +6659,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6685,7 +6710,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6736,7 +6761,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="199">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6787,7 +6812,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6838,7 +6863,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6889,7 +6914,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6940,7 +6965,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6991,7 +7016,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7042,7 +7067,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7093,7 +7118,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7144,7 +7169,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7195,7 +7220,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7246,7 +7271,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7297,7 +7322,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7348,7 +7373,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7399,7 +7424,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7450,7 +7475,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7501,7 +7526,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7654,7 +7679,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7705,7 +7730,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7807,7 +7832,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8011,7 +8036,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8062,7 +8087,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8113,7 +8138,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8164,7 +8189,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8215,7 +8240,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8266,7 +8291,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8284,7 +8309,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8335,7 +8360,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8386,7 +8411,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8437,7 +8462,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8488,7 +8513,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8539,7 +8564,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8590,7 +8615,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8641,7 +8666,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8658,50 +8683,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="156" t="str">
+      <c r="B50" s="271" t="s">
+        <v>262</v>
+      </c>
+      <c r="C50" s="272" t="e">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D50" s="272" t="e">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="156" t="str">
+      <c r="F50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="156" t="str">
+      <c r="G50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="156" t="str">
+      <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="156" t="str">
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8710,10 +8735,10 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
       <c r="D51" s="153" t="str">
@@ -8761,167 +8786,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>263</v>
-      </c>
-      <c r="C52" s="153" t="e">
+        <v>143</v>
+      </c>
+      <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>257</v>
+      </c>
+      <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="D53" s="153" t="str">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="F53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="G53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="156" t="e">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D54" s="156" t="str">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>261</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="157" t="str">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D55" s="157" t="str">
+      <c r="B55" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="C55" s="156" t="e">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D55" s="156" t="str">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v/>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E55" s="157" t="str">
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8929,112 +8955,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>-3.4999139091007644E-2</v>
-      </c>
-      <c r="D56" s="153">
+        <v>117</v>
+      </c>
+      <c r="C56" s="157" t="str">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>-9.1644785243048289E-3</v>
-      </c>
-      <c r="E56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="153" t="str">
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="153" t="str">
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="153" t="str">
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="158" t="e">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>-3.4999139091007644E-2</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>-9.1644785243048289E-3</v>
+      </c>
+      <c r="E57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="158" t="e">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="D58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>264</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>265</v>
+      </c>
+      <c r="C60" s="274" t="e">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D60" s="274" t="e">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>266</v>
+      </c>
+      <c r="C61" s="274" t="e">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D61" s="274" t="e">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="F61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="G61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="H61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9597,7 +9813,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10280,6 +10498,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10319,8 +10538,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10338,7 +10557,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10353,7 +10572,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10367,7 +10586,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10377,7 +10596,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10395,10 +10614,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10407,12 +10626,13 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
+        <f>(E49-I49-E53)</f>
         <v>0</v>
       </c>
       <c r="E6" s="56" t="e">
@@ -10422,7 +10642,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10432,8 +10652,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10445,7 +10666,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10463,7 +10684,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10482,32 +10703,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10524,7 +10745,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10535,7 +10756,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10552,7 +10773,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10563,7 +10784,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10580,7 +10801,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10591,7 +10812,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10608,7 +10829,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10619,7 +10840,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10636,7 +10857,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10646,7 +10867,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10668,7 +10889,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10690,7 +10911,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10711,7 +10932,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10736,7 +10957,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10763,7 +10984,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10784,7 +11005,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10801,7 +11022,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10813,13 +11034,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10841,7 +11062,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10861,7 +11082,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10870,7 +11091,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10890,7 +11111,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10903,7 +11124,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10923,7 +11144,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10969,7 +11190,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10978,7 +11199,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10994,7 +11215,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11004,7 +11225,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11021,7 +11242,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11031,7 +11252,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11048,7 +11269,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11058,7 +11279,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11078,7 +11299,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11088,7 +11309,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11105,7 +11326,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11115,7 +11336,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11141,7 +11362,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11168,7 +11389,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11195,7 +11416,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11216,7 +11437,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11237,7 +11458,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11258,7 +11479,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11279,7 +11500,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11296,7 +11517,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11314,7 +11535,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11333,7 +11554,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11352,7 +11573,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11369,7 +11590,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11382,7 +11603,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11399,7 +11620,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11412,7 +11633,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11429,7 +11650,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11456,7 +11677,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11472,14 +11693,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11496,7 +11717,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11526,7 +11747,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11537,14 +11758,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11552,30 +11773,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11592,11 +11813,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11606,7 +11827,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11627,7 +11848,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11648,7 +11869,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11669,7 +11890,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11684,7 +11905,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11715,11 +11936,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11729,7 +11950,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11750,7 +11971,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11765,7 +11986,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11787,21 +12008,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="271">
+        <v>123</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11811,23 +12032,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11848,7 +12069,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11878,7 +12099,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11899,7 +12120,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11929,7 +12150,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11959,7 +12180,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11990,7 +12211,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12017,12 +12238,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12052,7 +12273,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12082,7 +12303,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12112,7 +12333,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12133,7 +12354,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12164,7 +12385,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12185,28 +12406,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.548221358833082E-2</v>
+        <v>-1.5551840648606584E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.548221358833082E-2</v>
+        <v>-1.5551840648606584E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.548221358833082E-2</v>
+        <v>-1.5551840648606584E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12236,7 +12457,7 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
@@ -12267,29 +12488,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>151</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12306,24 +12527,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-1.9583630322788086</v>
+        <v>-1.957792719100657</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-1.9583630322788086</v>
+        <v>-1.957792719100657</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12334,14 +12555,14 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
@@ -12364,51 +12585,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-3491376.1151463701</v>
+        <v>-3490359.3589190859</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.97365253891723758</v>
+        <v>-0.9733689924732265</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.97365253891723758</v>
+        <v>-0.9733689924732265</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-1.2949239255523772</v>
+        <v>-1.2945468186690907</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -12426,7 +12647,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12447,11 +12668,11 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-3491376.1151463701</v>
+        <v>-3490359.3589190859</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12481,34 +12702,34 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
@@ -12542,34 +12763,34 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
@@ -12602,7 +12823,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12611,6 +12832,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0268.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0268.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67D789DD-8671-4A41-921D-D1C6EC0C9799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C38BC87D-E091-4CE4-97C3-E0E9CF9A2971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -524,14 +524,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -598,21 +590,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -640,9 +620,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -664,9 +641,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -866,14 +840,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -959,10 +925,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -976,6 +938,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1297,7 +1295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1555,13 +1553,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2211,6 +2325,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2450,981 +2588,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.35834792051449244</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.74823479113580682</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8655956702792868E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.11044830732057855</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3627,7 +2790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3641,28 +2804,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45603</v>
@@ -3678,7 +2841,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>67</v>
@@ -3687,15 +2850,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>3585854271</v>
@@ -3703,10 +2866,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3727,7 +2890,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3735,10 +2898,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3752,55 +2915,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3935,7 +3098,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C29" s="150">
         <v>21953</v>
@@ -4055,7 +3218,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4151,7 +3314,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4183,7 +3346,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <v>0</v>
@@ -4201,7 +3364,7 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4250,13 +3413,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -4315,7 +3478,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4326,7 +3489,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4427,7 +3590,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4438,7 +3601,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4598,7 +3761,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4616,7 +3779,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4624,10 +3787,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4637,16 +3800,16 @@
       <c r="B89" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4655,10 +3818,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>98</v>
       </c>
@@ -4707,7 +3870,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4728,7 +3891,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4746,7 +3909,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4785,7 +3948,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4803,7 +3966,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4889,8 +4052,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4931,62 +4094,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>181</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>0268.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>9.02</v>
+        <v>8.94</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>182</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>金蝶国际</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>3585854271</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="285">
+        <v>156</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>32344.405524419999</v>
-      </c>
-      <c r="H5" s="279"/>
+        <v>32057.537182739998</v>
+      </c>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5009,16 +4172,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5033,7 +4196,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0692596832911174</v>
+        <v>1.0691596666971843</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5043,40 +4206,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5089,29 +4252,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5121,12 +4284,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5134,9 +4297,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>178</v>
+        <v>264</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -5144,59 +4307,59 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.35834792051449244</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="276" t="e">
+        <f>C23*C22*(1/C21)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.74823479113580682</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C55</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>0</v>
+      <c r="B22" s="279" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C50</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>-0.10658271165029927</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5205,30 +4368,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>165</v>
+        <v>261</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>3.8655956702792868E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-64.301070374560339</v>
+        <v>-63.7367344503756</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
+        <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5237,14 +4400,14 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>168</v>
+        <v>263</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>-0.11044830732057855</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
@@ -5258,23 +4421,23 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>252</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>224</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>242</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
@@ -5289,31 +4452,31 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="278">
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="278"/>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5323,7 +4486,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5334,14 +4497,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5351,7 +4514,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5361,14 +4524,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5378,7 +4541,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5393,14 +4556,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6344,7 +5507,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6358,7 +5520,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6385,16 +5547,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6412,7 +5574,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6445,7 +5607,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6812,7 +5974,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6863,7 +6025,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6914,7 +6076,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6965,7 +6127,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7067,7 +6229,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7220,7 +6382,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7730,7 +6892,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8240,7 +7402,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8291,7 +7453,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8360,7 +7522,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8564,7 +7726,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8666,7 +7828,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8684,14 +7846,14 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C39)</f>
+        <f>IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E50" s="272" t="str">
@@ -8735,7 +7897,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>142</v>
+        <v>257</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8786,7 +7948,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>143</v>
+        <v>258</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8837,7 +7999,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8888,7 +8050,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -8905,7 +8067,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C55" s="156" t="e">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9105,7 +8267,7 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
@@ -9155,7 +8317,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C60" s="274" t="e">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9205,7 +8367,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C61" s="274" t="e">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10709,7 +9871,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10867,7 +10029,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11279,7 +10441,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11747,7 +10909,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11761,11 +10923,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11776,11 +10938,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11792,11 +10954,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11813,7 +10975,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11890,7 +11052,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11936,7 +11098,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11971,7 +11133,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12010,19 +11172,19 @@
       <c r="B72" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -12032,18 +11194,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12120,7 +11282,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12150,7 +11312,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12180,7 +11342,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12243,7 +11405,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12273,7 +11435,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12354,7 +11516,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12385,7 +11547,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12406,28 +11568,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.5551840648606584E-2</v>
+        <v>-1.5689539299798674E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.5551840648606584E-2</v>
+        <v>-1.5689539299798674E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.5551840648606584E-2</v>
+        <v>-1.5689539299798674E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12457,7 +11619,7 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
@@ -12493,24 +11655,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>149</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12527,24 +11689,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-1.957792719100657</v>
+        <v>-1.9562408807840486</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-1.957792719100657</v>
+        <v>-1.9562408807840486</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12555,14 +11717,14 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
@@ -12585,14 +11747,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12609,21 +11771,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-3490359.3589190859</v>
+        <v>-3487592.7364165816</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.9733689924732265</v>
+        <v>-0.97259745456526436</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.9733689924732265</v>
+        <v>-0.97259745456526436</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-1.2945468186690907</v>
+        <v>-1.2935207001549831</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12672,7 +11834,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-3490359.3589190859</v>
+        <v>-3487592.7364165816</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12702,21 +11864,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12729,7 +11891,7 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
@@ -12763,21 +11925,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12790,7 +11952,7 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
@@ -12823,7 +11985,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0268.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0268.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C38BC87D-E091-4CE4-97C3-E0E9CF9A2971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51E7E680-7A3A-4C78-B392-6F8B0279E55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -909,10 +905,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -974,6 +966,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2399,7 +2403,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2496,12 +2500,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2790,7 +2810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2804,28 +2824,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="189">
         <v>45603</v>
@@ -2841,7 +2861,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>67</v>
@@ -2850,15 +2870,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="193">
         <v>3585854271</v>
@@ -2866,10 +2886,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2890,7 +2910,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2898,10 +2918,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2915,61 +2935,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3098,7 +3118,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C29" s="150">
         <v>21953</v>
@@ -3184,9 +3204,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>14</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>265</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -3202,7 +3222,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -3218,7 +3238,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -3233,10 +3253,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
       <c r="F37" s="150"/>
@@ -3248,9 +3269,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>112</v>
+        <v>264</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -3297,10 +3318,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150"/>
       <c r="E41" s="150"/>
       <c r="F41" s="150"/>
@@ -3314,9 +3336,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>133</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
       <c r="F42" s="150"/>
@@ -3330,7 +3352,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -3346,7 +3368,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="250">
         <v>0</v>
@@ -3364,7 +3386,7 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3413,13 +3435,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -3437,7 +3459,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3447,7 +3469,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -3478,7 +3500,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -3489,7 +3511,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3523,7 +3545,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3590,7 +3612,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3601,7 +3623,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3648,7 +3670,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -3761,7 +3783,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -3779,7 +3801,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3787,10 +3809,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3798,7 +3820,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3806,10 +3828,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3831,7 +3853,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3870,7 +3892,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3891,7 +3913,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -3909,7 +3931,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -3948,7 +3970,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -3966,7 +3988,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -3989,28 +4011,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4052,8 +4079,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4094,7 +4121,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4106,15 +4133,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>8.94</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4134,7 +4161,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4147,7 +4174,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>32057.537182739998</v>
+        <v>32380.264067129996</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4181,7 +4208,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4196,7 +4223,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691596666971843</v>
+        <v>1.0690929889678955</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4206,40 +4233,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4252,29 +4279,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4284,12 +4311,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4299,7 +4326,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -4307,21 +4334,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4329,10 +4356,10 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C21" s="278" t="e">
-        <f>Data!C55</f>
+        <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
@@ -4340,58 +4367,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C22" s="280" t="e">
-        <f>Data!C50</f>
+        <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>-0.10658271165029927</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G23" s="177" t="e">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>3.8655956702792868E-3</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-63.7367344503756</v>
+        <v>-64.38239461121438</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4400,14 +4427,14 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
@@ -4421,23 +4448,23 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
@@ -4462,21 +4489,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4486,25 +4513,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4514,7 +4541,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4524,14 +4551,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4541,7 +4568,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4556,14 +4583,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5463,27 +5490,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5515,12 +5542,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5547,16 +5574,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>190</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5574,7 +5601,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5607,7 +5634,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5618,7 +5645,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5974,7 +6001,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6025,7 +6052,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6076,7 +6103,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6127,7 +6154,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6229,7 +6256,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6382,7 +6409,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6637,7 +6664,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6688,7 +6715,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6742,15 +6769,15 @@
         <v>13</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
+        <f>IF(C34="","",C34+C30)</f>
         <v>0</v>
       </c>
       <c r="D27" s="65" t="str">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
+        <f>IF(D34="","",D34+D30)</f>
         <v/>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6790,50 +6817,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
+        <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
       <c r="D28" s="199" t="str">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6841,50 +6868,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
+        <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
       <c r="D29" s="199" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6892,101 +6919,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>142</v>
+        <v>263</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D30" s="199" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
+        <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
       <c r="D31" s="199" t="str">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -6994,101 +7021,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
+        <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
       <c r="D32" s="199" t="str">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="199" t="str">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v/>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>18</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="77" t="str">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v/>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7096,50 +7123,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="D34" s="199" t="str">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7147,50 +7174,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="77" t="str">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v/>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>133</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199" t="str">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v/>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7198,50 +7225,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
+        <f>Inputs!C40</f>
         <v>0</v>
       </c>
       <c r="D36" s="199" t="str">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7249,272 +7276,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="199" t="str">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="65" t="str">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="199" t="str">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v/>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="155" t="e">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="155" t="e">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="155" t="str">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v/>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="65" t="str">
-        <f>IF(D38="","",D27-D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="155" t="e">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D40" s="155" t="e">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="155" t="str">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v/>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.35834792051449244</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.38393437912897221</v>
+      </c>
+      <c r="E40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="F40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="G40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="H40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.74823479113580682</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.78629236200896513</v>
+      </c>
+      <c r="E41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="F41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="H41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.35834792051449244</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.38393437912897221</v>
-      </c>
-      <c r="E42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="F42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="F42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="G42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7522,50 +7549,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.74823479113580682</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>3.8655956702792868E-3</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.78629236200896513</v>
+        <f t="shared" si="37"/>
+        <v>1.5744684961411033E-3</v>
       </c>
       <c r="E43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="F43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7573,50 +7600,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="E44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="F44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7624,50 +7651,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>3.8655956702792868E-3</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>0</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>1.5744684961411033E-3</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="E45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="F45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="G45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="H45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7675,221 +7702,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>-0.11044830732057855</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>-0.17180120963407838</v>
       </c>
       <c r="E46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="F47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="G47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>248</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>-0.11044830732057855</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>-0.17180120963407838</v>
-      </c>
-      <c r="E48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="F48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="G48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="H48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="F48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="G48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="H48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>256</v>
       </c>
-      <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7897,522 +7924,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0</v>
+        <v>246</v>
+      </c>
+      <c r="C51" s="153" t="e">
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>258</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C53" s="153" t="e">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D53" s="153" t="str">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="157" t="str">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>-</v>
+      </c>
+      <c r="D54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>252</v>
-      </c>
-      <c r="C55" s="156" t="e">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D55" s="156" t="str">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v/>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>-3.4999139091007644E-2</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>-9.1644785243048289E-3</v>
+      </c>
+      <c r="E55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="157" t="str">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>-3.4999139091007644E-2</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>-9.1644785243048289E-3</v>
-      </c>
-      <c r="E57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>251</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="158" t="e">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
+      <c r="B58" s="271" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="D58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>253</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C60" s="274" t="e">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D60" s="274" t="e">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="F60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="G60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="H60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C61" s="274" t="e">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D61" s="274" t="e">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="F61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="G61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="H61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -8972,12 +8903,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9659,27 +9586,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9871,7 +9801,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -9918,7 +9848,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -9946,7 +9876,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10029,7 +9959,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10051,7 +9981,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10119,7 +10049,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10441,7 +10371,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10578,7 +10508,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10909,7 +10839,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -10975,7 +10905,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11010,7 +10940,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11031,7 +10961,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11052,7 +10982,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11067,7 +10997,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11098,7 +11028,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11112,7 +11042,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11133,7 +11063,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11148,7 +11078,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11170,7 +11100,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11178,11 +11108,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11210,7 +11140,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11282,7 +11212,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11312,7 +11242,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11342,7 +11272,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11400,12 +11330,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11435,7 +11365,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11465,7 +11395,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11516,7 +11446,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11547,7 +11477,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11568,28 +11498,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.5689539299798674E-2</v>
+        <v>-1.5532196434113622E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.5689539299798674E-2</v>
+        <v>-1.5532196434113622E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.5689539299798674E-2</v>
+        <v>-1.5532196434113622E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11619,7 +11549,7 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
@@ -11650,27 +11580,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11689,24 +11619,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-1.9562408807840486</v>
+        <v>-1.9576828168384182</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-1.9562408807840486</v>
+        <v>-1.9576828168384182</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11717,14 +11647,14 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
@@ -11747,14 +11677,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11767,31 +11697,31 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-3487592.7364165816</v>
+        <v>-3490163.4248011233</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.97259745456526436</v>
+        <v>-0.97331435162528479</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.97259745456526436</v>
+        <v>-0.97331435162528479</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-1.2935207001549831</v>
+        <v>-1.2944741482466513</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -11809,7 +11739,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -11834,7 +11764,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-3487592.7364165816</v>
+        <v>-3490163.4248011233</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -11864,21 +11794,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11891,7 +11821,7 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
@@ -11925,21 +11855,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -11952,7 +11882,7 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
@@ -11985,7 +11915,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0268.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0268.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51E7E680-7A3A-4C78-B392-6F8B0279E55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B21129C5-25B3-4A98-A12D-CDEC9CF59A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -745,10 +745,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -945,10 +941,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -978,6 +970,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1914,7 +1922,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2150,12 +2157,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2354,6 +2357,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2593,8 +2601,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2810,7 +2818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2828,162 +2836,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>266</v>
+      <c r="C4" s="187" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>267</v>
+      <c r="C5" s="190" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45603</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="191" t="s">
+      <c r="C8" s="190" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="267"/>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>268</v>
+      <c r="C9" s="191" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>3585854271</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="192" t="s">
-        <v>269</v>
+      <c r="C11" s="191" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>243</v>
+      <c r="B15" s="215" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="175" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>270</v>
+      <c r="B17" s="237" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>272</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>271</v>
+      <c r="C19" s="239" t="s">
+        <v>273</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>271</v>
+      <c r="B20" s="238" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>273</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>270</v>
+      <c r="B21" s="221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>272</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>272</v>
+      <c r="B22" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>274</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3040,407 +3048,411 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>5679073</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>4865769</v>
       </c>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>2035084</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>1868136</v>
       </c>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <v>2809609</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <v>2530441</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="150">
+      <c r="C28" s="149">
         <v>1439671</v>
       </c>
-      <c r="D28" s="150">
+      <c r="D28" s="149">
         <v>1295476</v>
       </c>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="150">
+        <v>239</v>
+      </c>
+      <c r="C29" s="149">
         <v>21953</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>7661</v>
       </c>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>-59916</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>-63246</v>
       </c>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>265</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+        <v>263</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="B37" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="C37" s="149">
+        <v>0</v>
+      </c>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>264</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+        <v>262</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="C39" s="214"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="B41" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="149">
+        <v>0</v>
+      </c>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="C42" s="149">
+        <v>0</v>
+      </c>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="250">
-        <v>0</v>
-      </c>
-      <c r="D44" s="250"/>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="C44" s="247">
+        <v>0</v>
+      </c>
+      <c r="D44" s="247"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="C45" s="152">
+        <v>235</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="152" t="str">
+      <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3511,7 +3523,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3539,7 +3551,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3551,7 +3563,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3570,8 +3582,8 @@
       <c r="B59" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3623,7 +3635,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3639,7 +3651,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3651,7 +3663,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3664,7 +3676,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3712,14 +3724,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="247"/>
-      <c r="D72" s="248">
-        <v>0</v>
-      </c>
-      <c r="E72" s="249"/>
+      <c r="C72" s="244"/>
+      <c r="D72" s="245">
+        <v>0</v>
+      </c>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3743,7 +3755,7 @@
       <c r="B76" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3773,19 +3785,19 @@
       <c r="B81" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="83"/>
-    </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+        <v>266</v>
+      </c>
+      <c r="C82" s="214"/>
+    </row>
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="59"/>
+        <v>267</v>
+      </c>
+      <c r="C83" s="214"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
@@ -3801,20 +3813,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="197">
+        <v>233</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>235</v>
-      </c>
-      <c r="D87" s="269">
+        <v>231</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3844,10 +3856,10 @@
         <v>97</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3859,12 +3871,12 @@
         <f>C25</f>
         <v>5679073</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>5679073</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>5679073</v>
       </c>
@@ -3877,75 +3889,75 @@
         <f>C26</f>
         <v>2035084</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.35834792051449244</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>2035084</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>2035084</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>4249280</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.74823479113580682</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>4249280</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>4249280</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>21953</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>3.8655956702792868E-3</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>21953</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -3958,12 +3970,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -3976,12 +3988,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>0</v>
       </c>
@@ -3990,16 +4002,16 @@
       <c r="B98" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>0</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98</f>
         <v>0</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <f>C98</f>
         <v>0</v>
       </c>
@@ -4080,7 +4092,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4132,11 +4144,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>273</v>
+      <c r="G3" s="131">
+        <v>9.07</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4174,7 +4186,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>32380.264067129996</v>
+        <v>32523.698237970002</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4184,11 +4196,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4210,11 +4222,11 @@
       <c r="B7" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0009</v>
       </c>
@@ -4222,8 +4234,8 @@
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="133">
-        <v>1.0690929889678955</v>
+      <c r="G7" s="132">
+        <v>1.0682333310445149</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4232,10 +4244,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4243,7 +4255,7 @@
       <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4251,13 +4263,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4266,12 +4278,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="174">
+        <v>236</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4281,7 +4293,7 @@
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4292,7 +4304,7 @@
       <c r="B15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4300,13 +4312,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -4316,49 +4328,49 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="175">
+        <v>237</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>262</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="273" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="275" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
@@ -4366,77 +4378,77 @@
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>257</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>264</v>
+      </c>
+      <c r="C22" s="277" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="142" t="s">
+      <c r="F22" s="141" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>258</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>-0.10658271165029927</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>259</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>3.8655956702792868E-3</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>242</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>241</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-64.38239461121438</v>
+        <v>-64.719629011705678</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>261</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
         <v>0</v>
       </c>
@@ -4455,10 +4467,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4466,16 +4478,16 @@
       <c r="B29" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
         <v>0</v>
       </c>
-      <c r="D29" s="129">
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
         <v>0</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
@@ -4489,23 +4501,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -4513,9 +4525,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="225" t="e">
+        <v>210</v>
+      </c>
+      <c r="C34" s="222" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4523,17 +4535,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4541,26 +4553,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4568,9 +4580,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -4583,16 +4595,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5544,10 +5556,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5573,16 +5585,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="7"/>
@@ -5596,11 +5608,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -5625,7 +5637,7 @@
       <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5633,7 +5645,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -5697,47 +5709,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>5679073</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>4865769</v>
       </c>
-      <c r="E6" s="200" t="str">
+      <c r="E6" s="199" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="200" t="str">
+      <c r="F6" s="199" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="200" t="str">
+      <c r="G6" s="199" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="200" t="str">
+      <c r="H6" s="199" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5799,47 +5811,47 @@
       <c r="B8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>2035084</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>1868136</v>
       </c>
-      <c r="E8" s="199" t="str">
+      <c r="E8" s="198" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="199" t="str">
+      <c r="F8" s="198" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="199" t="str">
+      <c r="G8" s="198" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5850,47 +5862,47 @@
       <c r="B9" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>3643989</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>2997633</v>
       </c>
-      <c r="E9" s="151" t="str">
+      <c r="E9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="151" t="str">
+      <c r="F9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="151" t="str">
+      <c r="G9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="151" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5901,47 +5913,47 @@
       <c r="B10" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>2809609</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>2530441</v>
       </c>
-      <c r="E10" s="199" t="str">
+      <c r="E10" s="198" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="199" t="str">
+      <c r="F10" s="198" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="199" t="str">
+      <c r="G10" s="198" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="199" t="str">
+      <c r="H10" s="198" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -5952,47 +5964,47 @@
       <c r="B11" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="199">
+      <c r="C11" s="198">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v>1439671</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v>1295476</v>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6001,49 +6013,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="199">
+        <v>225</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="199" t="str">
+      <c r="E12" s="198" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="199" t="str">
+      <c r="F12" s="198" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="str">
+      <c r="G12" s="198" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6051,50 +6063,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>-0.10658271165029927</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>-0.17022674113793729</v>
       </c>
-      <c r="E13" s="229" t="str">
+      <c r="E13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="229" t="str">
+      <c r="F13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="229" t="str">
+      <c r="G13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="229" t="str">
+      <c r="H13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6102,50 +6114,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>-605291</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>-828284</v>
       </c>
-      <c r="E14" s="230" t="str">
+      <c r="E14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="230" t="str">
+      <c r="F14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="230" t="str">
+      <c r="G14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="230" t="str">
+      <c r="H14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6153,50 +6165,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.26922287524568866</v>
       </c>
-      <c r="D15" s="232" t="str">
+      <c r="D15" s="229" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="232" t="str">
+      <c r="E15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="232" t="str">
+      <c r="F15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="232" t="str">
+      <c r="G15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6207,47 +6219,47 @@
       <c r="B16" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="199" t="str">
+      <c r="C16" s="198" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="199" t="str">
+      <c r="D16" s="198" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6256,49 +6268,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="199">
+        <v>239</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>21953</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>7661</v>
       </c>
-      <c r="E17" s="199" t="str">
+      <c r="E17" s="198" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="199" t="str">
+      <c r="F17" s="198" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="199" t="str">
+      <c r="G17" s="198" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="199" t="str">
+      <c r="H17" s="198" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6309,47 +6321,47 @@
       <c r="B18" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="152" t="str">
+      <c r="C18" s="151" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="152" t="str">
+      <c r="D18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6360,47 +6372,47 @@
       <c r="B19" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="199" t="str">
+      <c r="C19" s="198" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="199" t="str">
+      <c r="D19" s="198" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6409,49 +6421,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="152">
+        <v>220</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="152" t="str">
+      <c r="E20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="152" t="str">
+      <c r="F20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="152" t="str">
+      <c r="G20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="152" t="str">
+      <c r="H20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6462,47 +6474,47 @@
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="199" t="str">
+      <c r="C21" s="198" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="199" t="str">
+      <c r="D21" s="198" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6513,47 +6525,47 @@
       <c r="B22" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>-627244</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>-835945</v>
       </c>
-      <c r="E22" s="161" t="str">
+      <c r="E22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="161" t="str">
+      <c r="F22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="161" t="str">
+      <c r="G22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="161" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6564,47 +6576,47 @@
       <c r="B23" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>-8.2836230490433913E-2</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>-0.12885090722555881</v>
       </c>
-      <c r="E23" s="153" t="str">
+      <c r="E23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="153" t="str">
+      <c r="F23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="153" t="str">
+      <c r="G23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="153" t="str">
+      <c r="H23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6615,7 +6627,7 @@
       <c r="B24" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>-470433</v>
       </c>
@@ -6663,50 +6675,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.24965876941664822</v>
       </c>
-      <c r="D25" s="233" t="str">
+      <c r="D25" s="230" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="233" t="str">
+      <c r="E25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="233" t="str">
+      <c r="F25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6823,43 +6835,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="199" t="str">
+      <c r="D28" s="198" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6874,43 +6886,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="199" t="str">
+      <c r="D29" s="198" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -6919,49 +6931,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199" t="str">
+      <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -6976,43 +6988,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199" t="str">
+      <c r="D31" s="198" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7027,43 +7039,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199" t="str">
+      <c r="D32" s="198" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7129,43 +7141,43 @@
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199" t="str">
+      <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7180,43 +7192,43 @@
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199" t="str">
+      <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7231,43 +7243,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199" t="str">
+      <c r="D36" s="198" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7329,47 +7341,47 @@
       <c r="B38" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="155" t="e">
+      <c r="C38" s="154" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="155" t="e">
+      <c r="D38" s="154" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="155" t="str">
+      <c r="E38" s="154" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7378,7 +7390,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7398,47 +7410,47 @@
       <c r="B40" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.35834792051449244</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.38393437912897221</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7447,49 +7459,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="153">
+        <v>219</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.74823479113580682</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.78629236200896513</v>
       </c>
-      <c r="E41" s="153" t="str">
+      <c r="E41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="153" t="str">
+      <c r="F41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="153" t="str">
+      <c r="G41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="153" t="str">
+      <c r="H41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7500,47 +7512,47 @@
       <c r="B42" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="153" t="str">
+      <c r="E42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="153" t="str">
+      <c r="F42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="153" t="str">
+      <c r="G42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="153" t="str">
+      <c r="H42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7551,47 +7563,47 @@
       <c r="B43" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>3.8655956702792868E-3</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>1.5744684961411033E-3</v>
       </c>
-      <c r="E43" s="153" t="str">
+      <c r="E43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="153" t="str">
+      <c r="F43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="153" t="str">
+      <c r="G43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="153" t="str">
+      <c r="H43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7602,47 +7614,47 @@
       <c r="B44" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E44" s="153" t="str">
+      <c r="E44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="153" t="str">
+      <c r="F44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="153" t="str">
+      <c r="G44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="153" t="str">
+      <c r="H44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7651,49 +7663,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="153">
+        <v>221</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7704,47 +7716,47 @@
       <c r="B46" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>-0.11044830732057855</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>-0.17180120963407838</v>
       </c>
-      <c r="E46" s="153" t="str">
+      <c r="E46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="153" t="str">
+      <c r="F46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="153" t="str">
+      <c r="G46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="153" t="str">
+      <c r="H46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7753,9 +7765,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>247</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>265</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7770,50 +7784,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>253</v>
+      </c>
+      <c r="C48" s="269" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="272" t="e">
+      <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="272" t="str">
+      <c r="E48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="272" t="str">
+      <c r="F48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="272" t="str">
+      <c r="G48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="272" t="str">
+      <c r="H48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7822,49 +7836,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="153">
+        <v>254</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="153" t="str">
+      <c r="D49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7873,49 +7887,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C50" s="153">
+        <v>255</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="153" t="str">
+      <c r="D50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -7924,49 +7938,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C51" s="153" t="e">
+        <v>245</v>
+      </c>
+      <c r="C51" s="152" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="153" t="str">
+      <c r="D51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="153" t="str">
+      <c r="E51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="153" t="str">
+      <c r="F51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="153" t="str">
+      <c r="G51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -7975,7 +7989,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -7992,49 +8006,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>249</v>
+      </c>
+      <c r="C53" s="155" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
+      <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8044,47 +8058,47 @@
       <c r="B54" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="157" t="str">
+      <c r="C54" s="156" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8094,47 +8108,47 @@
       <c r="B55" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>-3.4999139091007644E-2</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>-9.1644785243048289E-3</v>
       </c>
-      <c r="E55" s="153" t="str">
+      <c r="E55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8144,47 +8158,47 @@
       <c r="B56" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8192,149 +8206,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>250</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>252</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>251</v>
+      </c>
+      <c r="C58" s="271" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="274" t="e">
+      <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="274" t="str">
+      <c r="E58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="274" t="str">
+      <c r="F58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="274" t="str">
+      <c r="G58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="274" t="str">
+      <c r="H58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>252</v>
+      </c>
+      <c r="C59" s="271" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="274" t="e">
+      <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="274" t="str">
+      <c r="E59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="274" t="str">
+      <c r="F59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="274" t="str">
+      <c r="G59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="274" t="str">
+      <c r="H59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9630,8 +9644,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9667,8 +9681,8 @@
         <v>21</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9680,8 +9694,8 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>0</v>
       </c>
       <c r="K3" s="24"/>
@@ -9691,8 +9705,8 @@
         <v>23</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
@@ -9779,11 +9793,11 @@
         <v>28</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9826,7 +9840,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9854,7 +9868,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9882,7 +9896,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -9910,7 +9924,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -9923,7 +9937,7 @@
       <c r="H14" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -9938,7 +9952,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -9965,7 +9979,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -9987,7 +10001,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10009,7 +10023,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10030,7 +10044,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10038,7 +10052,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10055,7 +10069,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10063,7 +10077,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10082,7 +10096,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10103,7 +10117,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10268,7 +10282,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10297,7 +10311,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10323,7 +10337,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10350,7 +10364,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10377,7 +10391,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10393,7 +10407,7 @@
       <c r="H33" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10407,7 +10421,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10434,7 +10448,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10442,7 +10456,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10460,7 +10474,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10468,7 +10482,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10487,7 +10501,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10495,7 +10509,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10514,7 +10528,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10535,7 +10549,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10556,7 +10570,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10577,7 +10591,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10598,7 +10612,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10744,8 +10758,8 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>0</v>
       </c>
       <c r="J48" s="8"/>
@@ -10771,8 +10785,8 @@
       <c r="H49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="J49" s="87"/>
@@ -10842,7 +10856,7 @@
         <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -10942,7 +10956,7 @@
       <c r="B62" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>0</v>
       </c>
@@ -10950,7 +10964,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>0</v>
       </c>
@@ -10981,11 +10995,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11062,12 +11076,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>0</v>
       </c>
@@ -11146,17 +11160,17 @@
         <f>Data!C6</f>
         <v>5679073</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>5679073</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>5679073</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11167,23 +11181,23 @@
         <f>Data!C8</f>
         <v>2035084</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.35834792051449244</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>2035084</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.35834792051449244</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>2035084</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.35834792051449244</v>
       </c>
@@ -11193,48 +11207,48 @@
       <c r="B76" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>3643989</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>3643989</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>3643989</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>4249280</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.74823479113580682</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>4249280</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.74823479113580682</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>4249280</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.74823479113580682</v>
       </c>
@@ -11248,54 +11262,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>-605291</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>-0.10658271165029927</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>-605291</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>-0.10658271165029927</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>-605291</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>-0.10658271165029927</v>
       </c>
@@ -11309,55 +11323,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>21953</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>3.8655956702792868E-3</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>21953</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>3.8655956702792868E-3</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>21953</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>3.8655956702792868E-3</v>
       </c>
@@ -11365,29 +11379,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -11397,27 +11411,27 @@
       <c r="B83" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>-627244</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>-0.11044830732057855</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>-627244</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>-0.11044830732057855</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>-627244</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>-0.11044830732057855</v>
       </c>
@@ -11427,49 +11441,49 @@
       <c r="B84" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>-470433</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>-8.2836230490433913E-2</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>-470433</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>-8.2836230490433913E-2</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>-470433</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>-8.2836230490433913E-2</v>
       </c>
@@ -11479,69 +11493,69 @@
       <c r="B86" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>-0.13119133251023296</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>-0.13119133251023296</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>-0.13119133251023296</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.5532196434113622E-2</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>-1.545126285904903E-2</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.5532196434113622E-2</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>-1.545126285904903E-2</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.5532196434113622E-2</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>-1.545126285904903E-2</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>0</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>0</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>0</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>0</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>0</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>0</v>
       </c>
@@ -11549,23 +11563,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="261">
+        <v>206</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="I89" s="209"/>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11587,7 +11601,7 @@
       <c r="B92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -11610,27 +11624,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-1.9576828168384182</v>
+        <v>-1.9569128390378094</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-1.9576828168384182</v>
+        <v>-1.9569128390378094</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11638,25 +11652,25 @@
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
@@ -11672,25 +11686,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K96" s="24"/>
@@ -11701,21 +11715,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-3490163.4248011233</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>-3488790.7058220939</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.97331435162528479</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>-0.97293153657612597</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.97331435162528479</v>
-      </c>
-      <c r="I97" s="123">
+        <v>-0.97293153657612597</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-1.2944741482466513</v>
+        <v>-1.2939650175800086</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11727,14 +11741,14 @@
         <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="215"/>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11745,17 +11759,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -11764,7 +11778,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-3490163.4248011233</v>
+        <v>-3488790.7058220939</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -11796,25 +11810,25 @@
       <c r="B102" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K102" s="24"/>
@@ -11831,7 +11845,7 @@
         <f>MIN(F103*(1-C94),E103)</f>
         <v>0</v>
       </c>
-      <c r="E103" s="123">
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
         <v>0</v>
       </c>
@@ -11839,7 +11853,7 @@
         <f>(E103+H103)/2</f>
         <v>0</v>
       </c>
-      <c r="H103" s="123">
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
         <v>0</v>
       </c>
@@ -11857,25 +11871,25 @@
       <c r="B105" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K105" s="24"/>
@@ -11892,7 +11906,7 @@
         <f>(D100+D103)/2</f>
         <v>0</v>
       </c>
-      <c r="E106" s="123">
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
         <v>0</v>
       </c>
@@ -11900,11 +11914,11 @@
         <f>(F100+F103)/2</f>
         <v>0</v>
       </c>
-      <c r="H106" s="123">
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
         <v>0</v>
       </c>
-      <c r="I106" s="123">
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
         <v>0</v>
       </c>
@@ -11917,14 +11931,13 @@
       <c r="B108" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0268.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0268.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B21129C5-25B3-4A98-A12D-CDEC9CF59A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74CD926F-C3C8-4BFB-B7AE-9E1B6166DE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3264,9 +3264,7 @@
       <c r="B37" s="94" t="s">
         <v>261</v>
       </c>
-      <c r="C37" s="149">
-        <v>0</v>
-      </c>
+      <c r="C37" s="149"/>
       <c r="D37" s="149"/>
       <c r="E37" s="149"/>
       <c r="F37" s="149"/>
@@ -3330,9 +3328,7 @@
       <c r="B41" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149">
-        <v>0</v>
-      </c>
+      <c r="C41" s="149"/>
       <c r="D41" s="149"/>
       <c r="E41" s="149"/>
       <c r="F41" s="149"/>
@@ -3348,9 +3344,7 @@
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="149">
-        <v>0</v>
-      </c>
+      <c r="C42" s="149"/>
       <c r="D42" s="149"/>
       <c r="E42" s="149"/>
       <c r="F42" s="149"/>
@@ -4145,7 +4139,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>9.07</v>
+        <v>9.06</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>275</v>
@@ -4186,7 +4180,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>32523.698237970002</v>
+        <v>32487.839695260001</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4235,7 +4229,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="132">
-        <v>1.0682333310445149</v>
+        <v>1.0681999921798706</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4418,7 +4412,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-64.719629011705678</v>
+        <v>-64.650290995021308</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11516,17 +11510,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.545126285904903E-2</v>
+        <v>-1.5467834476986495E-2</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.545126285904903E-2</v>
+        <v>-1.5467834476986495E-2</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.545126285904903E-2</v>
+        <v>-1.5467834476986495E-2</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11637,14 +11631,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-1.9569128390378094</v>
+        <v>-1.9566870850103173</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-1.9569128390378094</v>
+        <v>-1.9566870850103173</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11715,21 +11709,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-3488790.7058220939</v>
+        <v>-3488388.2307924428</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.97293153657612597</v>
+        <v>-0.97281929692575697</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.97293153657612597</v>
+        <v>-0.97281929692575697</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-1.2939650175800086</v>
+        <v>-1.293815742758808</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11778,7 +11772,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-3488790.7058220939</v>
+        <v>-3488388.2307924428</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>

--- a/financial_models/opportunities/0268.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0268.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74CD926F-C3C8-4BFB-B7AE-9E1B6166DE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{824D41B4-05FA-4561-AA79-AC5FE21A91A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -847,10 +844,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -965,10 +958,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -986,6 +975,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1687,7 +1684,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1835,7 +1832,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2025,9 +2021,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2363,6 +2356,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2818,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2832,172 +2826,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="189" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45603</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="190" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C10" s="190">
+        <v>3585854271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="189" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="192">
-        <v>3585854271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="191" t="s">
+      <c r="C14" s="214">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B15" s="213" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B16" s="217" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="218">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B17" s="235" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="237" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="216">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="220">
-        <v>0.25</v>
-      </c>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="239" t="s">
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B18" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="237" t="s">
+        <v>227</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
+        <v>223</v>
+      </c>
+      <c r="C19" s="237" t="s">
         <v>272</v>
       </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
-        <v>223</v>
-      </c>
-      <c r="C18" s="239" t="s">
-        <v>228</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="239" t="s">
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B20" s="236" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>272</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B21" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="B22" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="238" t="s">
         <v>273</v>
       </c>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>273</v>
-      </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>272</v>
-      </c>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>274</v>
-      </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>128</v>
+      <c r="B24" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3045,799 +3039,800 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>5679073</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>4865769</v>
       </c>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="148">
+        <v>2035084</v>
+      </c>
+      <c r="D26" s="148">
+        <v>1868136</v>
+      </c>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
+    </row>
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B27" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="148">
+        <v>2809609</v>
+      </c>
+      <c r="D27" s="148">
+        <v>2530441</v>
+      </c>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+    </row>
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B28" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="149">
-        <v>2035084</v>
-      </c>
-      <c r="D26" s="149">
-        <v>1868136</v>
-      </c>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
-    </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
+      <c r="C28" s="148">
+        <v>1439671</v>
+      </c>
+      <c r="D28" s="148">
+        <v>1295476</v>
+      </c>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="148">
+        <v>21953</v>
+      </c>
+      <c r="D29" s="148">
+        <v>7661</v>
+      </c>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="148">
+        <v>-59916</v>
+      </c>
+      <c r="D30" s="148">
+        <v>-63246</v>
+      </c>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="149">
-        <v>2809609</v>
-      </c>
-      <c r="D27" s="149">
-        <v>2530441</v>
-      </c>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
-    </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="149">
-        <v>1439671</v>
-      </c>
-      <c r="D28" s="149">
-        <v>1295476</v>
-      </c>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="149">
-        <v>21953</v>
-      </c>
-      <c r="D29" s="149">
-        <v>7661</v>
-      </c>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="149">
-        <v>-59916</v>
-      </c>
-      <c r="D30" s="149">
-        <v>-63246</v>
-      </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="149"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>263</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="B34" s="96" t="s">
+        <v>260</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="B35" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="B36" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>261</v>
-      </c>
-      <c r="C37" s="149"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="B37" s="93" t="s">
+        <v>259</v>
+      </c>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>265</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="148"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="149"/>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="C42" s="148"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="B43" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="247">
-        <v>0</v>
-      </c>
-      <c r="D44" s="247"/>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+        <v>192</v>
+      </c>
+      <c r="C44" s="245">
+        <v>0</v>
+      </c>
+      <c r="D44" s="245"/>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="151">
+        <v>233</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="151" t="str">
+      <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="151" t="str">
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>32</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>67</v>
+      <c r="E56" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>42</v>
+      <c r="E57" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>46</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>67</v>
+      <c r="E65" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>67</v>
+      <c r="E66" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>42</v>
+      <c r="E67" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="244"/>
-      <c r="D72" s="245">
-        <v>0</v>
-      </c>
-      <c r="E72" s="246"/>
+      <c r="B72" s="241" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="242"/>
+      <c r="D72" s="243">
+        <v>0</v>
+      </c>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="119"/>
+      <c r="B76" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="83"/>
+      <c r="C77" s="82"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>266</v>
-      </c>
-      <c r="C82" s="214"/>
+        <v>263</v>
+      </c>
+      <c r="C82" s="212"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>267</v>
-      </c>
-      <c r="C83" s="214"/>
+        <v>264</v>
+      </c>
+      <c r="C83" s="212"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="196">
+        <v>231</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>234</v>
-      </c>
-      <c r="D87" s="266">
+        <v>230</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>232</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>191</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>190</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3846,166 +3841,166 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>98</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>98</v>
+      <c r="F90" s="250" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>5679073</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>5679073</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>5679073</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>102</v>
+      <c r="B92" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>2035084</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.35834792051449244</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>2035084</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>2035084</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>230</v>
+      <c r="B93" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>4249280</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.74823479113580682</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>4249280</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>4249280</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>239</v>
+      <c r="B94" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>21953</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>3.8655956702792868E-3</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>21953</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>0</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>0</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>0</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98</f>
         <v>0</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <f>C98</f>
         <v>0</v>
       </c>
@@ -4018,32 +4013,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4102,13 +4097,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4119,82 +4114,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>0268.HK : 金蝶国际</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>179</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>0268.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>9.06</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>275</v>
+      <c r="G3" s="130">
+        <v>8.98</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>180</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>金蝶国际</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>3585854271</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="293">
+        <v>154</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="287">
+        <v>95</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>32487.839695260001</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>32200.97135358</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4205,31 +4200,31 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0009</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="132">
-        <v>1.0681999921798706</v>
+      <c r="G7" s="131">
+        <v>1.0679666598637898</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4238,211 +4233,211 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>172</v>
+      <c r="B9" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="171">
+        <v>162</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>170</v>
+      <c r="F10" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>165</v>
+      <c r="D11" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="171">
+        <v>163</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>169</v>
+      <c r="F14" s="109" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>166</v>
+      <c r="F16" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>260</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" s="273" t="e">
+      <c r="B20" s="270" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" s="271" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" s="275" t="e">
+      <c r="B21" s="272" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="273" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>264</v>
-      </c>
-      <c r="C22" s="277" t="e">
+      <c r="B22" s="274" t="s">
+        <v>261</v>
+      </c>
+      <c r="C22" s="275" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>171</v>
+      <c r="F22" s="140" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>256</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>-0.10658271165029927</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="176" t="e">
+      <c r="F23" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="174" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>257</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>3.8655956702792868E-3</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>241</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-64.650290995021308</v>
+        <v>-64.093427749314344</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>259</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
         <v>0</v>
       </c>
@@ -4450,68 +4445,68 @@
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>159</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>240</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>221</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>238</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
         <v>0</v>
       </c>
-      <c r="D29" s="128">
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="286">
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="286"/>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>208</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -4519,9 +4514,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="222" t="e">
+        <v>209</v>
+      </c>
+      <c r="C34" s="220" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4529,17 +4524,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>222</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4547,26 +4542,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>212</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4574,9 +4569,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>215</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -4589,16 +4584,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5550,10 +5545,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5579,59 +5574,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>190</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="85" t="str">
+      <c r="E3" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="84" t="str">
         <f>H14</f>
         <v/>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>-605291</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5639,19 +5634,19 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="93" t="e">
+      <c r="E4" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>128</v>
+      <c r="B5" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5700,928 +5695,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>5679073</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>4865769</v>
       </c>
-      <c r="E6" s="199" t="str">
+      <c r="E6" s="197" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="199" t="str">
+      <c r="F6" s="197" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="199" t="str">
+      <c r="G6" s="197" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="199" t="str">
+      <c r="H6" s="197" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>0.1671480910828278</v>
       </c>
-      <c r="D7" s="92" t="str">
+      <c r="D7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E7" s="92" t="str">
+      <c r="E7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F7" s="92" t="str">
+      <c r="F7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="92" t="str">
+      <c r="G7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>2035084</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>1868136</v>
       </c>
-      <c r="E8" s="198" t="str">
+      <c r="E8" s="196" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="198" t="str">
+      <c r="F8" s="196" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="198" t="str">
+      <c r="G8" s="196" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="198" t="str">
+      <c r="H8" s="196" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>3643989</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>2997633</v>
       </c>
-      <c r="E9" s="150" t="str">
+      <c r="E9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="150" t="str">
+      <c r="F9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="150" t="str">
+      <c r="G9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="150" t="str">
+      <c r="H9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>2809609</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>2530441</v>
       </c>
-      <c r="E10" s="198" t="str">
+      <c r="E10" s="196" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="198" t="str">
+      <c r="F10" s="196" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="198" t="str">
+      <c r="G10" s="196" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="198" t="str">
+      <c r="H10" s="196" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="198">
+      <c r="B11" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="196">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v>1439671</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="196">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v>1295476</v>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="198" t="str">
+      <c r="E12" s="196" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="198" t="str">
+      <c r="F12" s="196" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="198" t="str">
+      <c r="G12" s="196" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="198" t="str">
+      <c r="H12" s="196" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>-0.10658271165029927</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>-0.17022674113793729</v>
       </c>
-      <c r="E13" s="226" t="str">
+      <c r="E13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="226" t="str">
+      <c r="F13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="226" t="str">
+      <c r="G13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="226" t="str">
+      <c r="H13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>-605291</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>-828284</v>
       </c>
-      <c r="E14" s="227" t="str">
+      <c r="E14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="227" t="str">
+      <c r="F14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="227" t="str">
+      <c r="G14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="227" t="str">
+      <c r="H14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.26922287524568866</v>
       </c>
-      <c r="D15" s="229" t="str">
+      <c r="D15" s="227" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="229" t="str">
+      <c r="E15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="229" t="str">
+      <c r="F15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="229" t="str">
+      <c r="G15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="198" t="str">
+      <c r="B16" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="196" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="198" t="str">
+      <c r="D16" s="196" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>21953</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>7661</v>
       </c>
-      <c r="E17" s="198" t="str">
+      <c r="E17" s="196" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="198" t="str">
+      <c r="F17" s="196" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="198" t="str">
+      <c r="G17" s="196" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="198" t="str">
+      <c r="H17" s="196" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="151" t="str">
+      <c r="B18" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="150" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="151" t="str">
+      <c r="D18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="198" t="str">
+      <c r="B19" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="196" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="198" t="str">
+      <c r="D19" s="196" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="151" t="str">
+      <c r="E20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="151" t="str">
+      <c r="F20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="151" t="str">
+      <c r="G20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="151" t="str">
+      <c r="H20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="198" t="str">
+      <c r="B21" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="196" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="198" t="str">
+      <c r="D21" s="196" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>-627244</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>-835945</v>
       </c>
-      <c r="E22" s="160" t="str">
+      <c r="E22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="160" t="str">
+      <c r="F22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="160" t="str">
+      <c r="G22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="160" t="str">
+      <c r="H22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>-8.2836230490433913E-2</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>-0.12885090722555881</v>
       </c>
-      <c r="E23" s="152" t="str">
+      <c r="E23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="152" t="str">
+      <c r="F23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="152" t="str">
+      <c r="G23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="152" t="str">
+      <c r="H23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>-470433</v>
       </c>
@@ -6665,63 +6660,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>0.24965876941664822</v>
       </c>
-      <c r="D25" s="230" t="str">
+      <c r="D25" s="228" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="230" t="str">
+      <c r="E25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="230" t="str">
+      <c r="F25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="230" t="str">
+      <c r="G25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>129</v>
+      <c r="B26" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6767,11 +6762,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="65">
@@ -6818,266 +6813,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>112</v>
+      <c r="B28" s="93" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="198" t="str">
+      <c r="D28" s="196" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>141</v>
+      <c r="B29" s="93" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="198" t="str">
+      <c r="D29" s="196" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>261</v>
+      <c r="B30" s="93" t="s">
+        <v>259</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198" t="str">
+      <c r="D30" s="196" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="198" t="str">
+      <c r="E30" s="196" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="198" t="str">
+      <c r="F30" s="196" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="198" t="str">
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198" t="str">
+      <c r="D31" s="196" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198" t="str">
+      <c r="D32" s="196" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="77">
@@ -7124,165 +7119,165 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>132</v>
+      <c r="B34" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198" t="str">
+      <c r="D34" s="196" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="198" t="str">
+      <c r="E34" s="196" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="198" t="str">
+      <c r="F34" s="196" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="198" t="str">
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>133</v>
+      <c r="B35" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198" t="str">
+      <c r="D35" s="196" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="198" t="str">
+      <c r="E35" s="196" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="198" t="str">
+      <c r="F35" s="196" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>131</v>
+      <c r="B36" s="93" t="s">
+        <v>130</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198" t="str">
+      <c r="D36" s="196" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>135</v>
+      <c r="B37" s="93" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
@@ -7328,63 +7323,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="154" t="e">
+      <c r="B38" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="153" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="154" t="e">
+      <c r="D38" s="153" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="154" t="str">
+      <c r="E38" s="153" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7397,372 +7392,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.35834792051449244</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.38393437912897221</v>
       </c>
-      <c r="E40" s="155" t="str">
+      <c r="E40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="155" t="str">
+      <c r="F40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="155" t="str">
+      <c r="G40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="155" t="str">
+      <c r="H40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.74823479113580682</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.78629236200896513</v>
       </c>
-      <c r="E41" s="152" t="str">
+      <c r="E41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="152" t="str">
+      <c r="F41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="152" t="str">
+      <c r="G41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="152" t="str">
+      <c r="H41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="152" t="str">
+      <c r="E42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="152" t="str">
+      <c r="F42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="152" t="str">
+      <c r="G42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="152" t="str">
+      <c r="H42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>3.8655956702792868E-3</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>1.5744684961411033E-3</v>
       </c>
-      <c r="E43" s="152" t="str">
+      <c r="E43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="152" t="str">
+      <c r="F43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="152" t="str">
+      <c r="G43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="152" t="str">
+      <c r="H43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E44" s="152" t="str">
+      <c r="E44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="152" t="str">
+      <c r="F44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="152" t="str">
+      <c r="G44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="152" t="str">
+      <c r="H44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>-0.11044830732057855</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>-0.17180120963407838</v>
       </c>
-      <c r="E46" s="152" t="str">
+      <c r="E46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="152" t="str">
+      <c r="F46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="152" t="str">
+      <c r="G46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="152" t="str">
+      <c r="H46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>247</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>265</v>
+      <c r="B47" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>262</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7774,216 +7769,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>253</v>
-      </c>
-      <c r="C48" s="269" t="e">
+      <c r="B48" s="266" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" s="267" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="269" t="e">
+      <c r="D48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="269" t="str">
+      <c r="E48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="269" t="str">
+      <c r="F48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="269" t="str">
+      <c r="G48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="269" t="str">
+      <c r="H48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>252</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="152" t="str">
+      <c r="D49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="152" t="str">
+      <c r="D50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>245</v>
-      </c>
-      <c r="C51" s="152" t="e">
+      <c r="B51" s="93" t="s">
+        <v>243</v>
+      </c>
+      <c r="C51" s="151" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="152" t="str">
+      <c r="D51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="152" t="str">
+      <c r="E51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="152" t="str">
+      <c r="F51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="152" t="str">
+      <c r="G51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>248</v>
+      <c r="B52" s="101" t="s">
+        <v>246</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -7999,350 +7994,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>249</v>
-      </c>
-      <c r="C53" s="155" t="e">
+      <c r="B53" s="94" t="s">
+        <v>247</v>
+      </c>
+      <c r="C53" s="154" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="155" t="str">
+      <c r="D53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="155" t="str">
+      <c r="E53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="155" t="str">
+      <c r="F53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="155" t="str">
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="156" t="str">
+      <c r="B54" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="155" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="156" t="str">
+      <c r="D54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>-3.4999139091007644E-2</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>-9.1644785243048289E-3</v>
       </c>
-      <c r="E55" s="152" t="str">
+      <c r="E55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="152" t="str">
+      <c r="F55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="152" t="str">
+      <c r="G55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="152" t="str">
+      <c r="H55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151" t="str">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v/>
+      </c>
+      <c r="E56" s="151" t="str">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v/>
+      </c>
+      <c r="F56" s="151" t="str">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v/>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>248</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>251</v>
-      </c>
-      <c r="C58" s="271" t="e">
+      <c r="B58" s="266" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" s="269" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="271" t="e">
+      <c r="D58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="271" t="str">
+      <c r="E58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="271" t="str">
+      <c r="F58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="271" t="str">
+      <c r="G58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="271" t="str">
+      <c r="H58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>252</v>
-      </c>
-      <c r="C59" s="271" t="e">
+      <c r="B59" s="266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C59" s="269" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="271" t="e">
+      <c r="D59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="271" t="str">
+      <c r="E59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="271" t="str">
+      <c r="F59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="271" t="str">
+      <c r="G59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="271" t="str">
+      <c r="H59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9621,7 +9616,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9639,7 +9634,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9657,25 +9652,25 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>20</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
@@ -9683,12 +9678,12 @@
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="282">
+        <v>21</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -9696,28 +9691,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>22</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -9730,7 +9725,7 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in CNY</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
         <v>0</v>
@@ -9739,16 +9734,16 @@
         <f>1-D6/D3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9756,7 +9751,7 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
         <v>0</v>
@@ -9766,287 +9761,287 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>27</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>0</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>0</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="84">
+        <v>49</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10057,21 +10052,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10084,45 +10079,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10130,17 +10125,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10150,19 +10145,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="113" t="e">
+      <c r="F24" s="112" t="e">
         <f>E24/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10172,17 +10167,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="113" t="e">
+      <c r="F25" s="112" t="e">
         <f>E25/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10191,7 +10186,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10201,17 +10196,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>0</v>
       </c>
-      <c r="F26" s="113" t="e">
+      <c r="F26" s="112" t="e">
         <f>E26/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10224,7 +10219,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10234,17 +10229,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>0</v>
       </c>
-      <c r="F27" s="113" t="e">
+      <c r="F27" s="112" t="e">
         <f>E27/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10271,12 +10266,12 @@
         <f>SUM(E24:E27)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10286,171 +10281,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
-        <v>0</v>
-      </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="E30" s="87">
+        <v>0</v>
+      </c>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>0</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="84">
+        <v>73</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10458,25 +10453,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10484,26 +10479,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10511,113 +10506,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10625,17 +10620,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10645,16 +10640,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>0</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10664,16 +10659,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>0</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10683,14 +10678,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>0</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -10703,7 +10698,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10713,14 +10708,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>0</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10733,13 +10728,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="81">
+        <v>79</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="82" t="e">
+      <c r="D48" s="81" t="e">
         <f>E48/C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -10747,12 +10742,12 @@
         <f>SUM(E30:E42)</f>
         <v>0</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="281">
+        <v>80</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>0</v>
       </c>
@@ -10763,63 +10758,63 @@
         <v>13</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
+        <f>Inputs!C41+Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D49" s="56" t="e">
         <f>E49/C49</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E49" s="88">
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>0</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>83</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="88">
+        <v>84</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>0</v>
       </c>
@@ -10827,45 +10822,45 @@
         <f>IF(E53=0, 0,E53/C53)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
         <v>0</v>
       </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>85</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10873,61 +10868,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
+        <f>Inputs!C84</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
+      <c r="K57" s="33" t="s">
         <v>87</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
-        <f>Inputs!C84</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="K57" s="33" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>88</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>89</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -10941,35 +10936,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>0</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="116">
+        <v>133</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>0</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>0</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -10983,29 +10978,29 @@
         <f>E61+E62</f>
         <v>0</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11019,9 +11014,9 @@
         <f>E63-E64</f>
         <v>0</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11029,28 +11024,28 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11064,29 +11059,29 @@
         <f>E49-E63</f>
         <v>0</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>0</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11100,29 +11095,29 @@
         <f>E68-E69</f>
         <v>0</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11132,66 +11127,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>5679073</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>5679073</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>5679073</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>102</v>
+      <c r="B75" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>2035084</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.35834792051449244</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>2035084</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.35834792051449244</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>2035084</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.35834792051449244</v>
       </c>
@@ -11199,50 +11194,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="160">
+        <v>91</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>3643989</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>3643989</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>3643989</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>230</v>
+      <c r="B77" s="103" t="s">
+        <v>229</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>4249280</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.74823479113580682</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>4249280</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.74823479113580682</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>4249280</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.74823479113580682</v>
       </c>
@@ -11250,60 +11245,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>0</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>0</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>0</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>-605291</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>-0.10658271165029927</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>-605291</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>-0.10658271165029927</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>-605291</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>-0.10658271165029927</v>
       </c>
@@ -11311,61 +11306,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>126</v>
+      <c r="K80" s="178" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>239</v>
+      <c r="B81" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>21953</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>3.8655956702792868E-3</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>21953</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>3.8655956702792868E-3</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>21953</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>3.8655956702792868E-3</v>
       </c>
@@ -11373,59 +11368,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>-627244</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>-0.11044830732057855</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>-627244</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>-0.11044830732057855</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>-627244</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>-0.11044830732057855</v>
       </c>
@@ -11433,184 +11428,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>92</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>-470433</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>-8.2836230490433913E-2</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>-470433</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>-8.2836230490433913E-2</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>-470433</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>-8.2836230490433913E-2</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>-0.13119133251023296</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>-0.13119133251023296</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>-0.13119133251023296</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.5467834476986495E-2</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>-1.5602223739870079E-2</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.5467834476986495E-2</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>-1.5602223739870079E-2</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.5467834476986495E-2</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>-1.5602223739870079E-2</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>0</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>0</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>0</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>0</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>0</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>0</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
         <v>0</v>
       </c>
-      <c r="I89" s="206"/>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>146</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11618,53 +11613,53 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-1.9566870850103173</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="I93" s="143">
+        <v>-1.9549248870114062</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-1.9566870850103173</v>
+        <v>-1.9549248870114062</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="181">
+        <v>196</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="H94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I94" s="143">
+      <c r="H94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
         <v>0</v>
       </c>
@@ -11676,121 +11671,121 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>111</v>
+      <c r="I96" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="91">
+        <v>124</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-3488388.2307924428</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>-3485246.5783499954</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.97281929692575697</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>-0.97194317307770917</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.97281929692575697</v>
-      </c>
-      <c r="I97" s="122">
+        <v>-0.97194317307770917</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-1.293815742758808</v>
+        <v>-1.2926505285912921</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="90">
+        <f>-E53*Exchange_Rate</f>
+        <v>0</v>
+      </c>
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
+        <f>C98*Data!$C$4/Common_Shares</f>
+        <v>0</v>
+      </c>
+      <c r="I98" s="210"/>
+      <c r="K98" s="24"/>
+    </row>
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91">
-        <f>-E53*Exchange_Rate</f>
-        <v>0</v>
-      </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
-        <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0</v>
-      </c>
-      <c r="I98" s="212"/>
-      <c r="K98" s="24"/>
-    </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="213"/>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="91">
+        <v>110</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>-3488388.2307924428</v>
-      </c>
-      <c r="D100" s="109">
+        <v>-3485246.5783499954</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
         <v>0</v>
       </c>
-      <c r="E100" s="109">
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
         <v>0</v>
       </c>
-      <c r="F100" s="109">
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
         <v>0</v>
       </c>
-      <c r="H100" s="109">
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
         <v>0</v>
       </c>
-      <c r="I100" s="109">
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
         <v>0</v>
       </c>
@@ -11802,56 +11797,56 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>153</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>111</v>
+      <c r="I102" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C103" s="91">
+        <v>152</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
         <v>0</v>
       </c>
-      <c r="D103" s="109">
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
         <v>0</v>
       </c>
-      <c r="E103" s="122">
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
         <v>0</v>
       </c>
-      <c r="F103" s="109">
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
         <v>0</v>
       </c>
-      <c r="H103" s="122">
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
         <v>0</v>
       </c>
-      <c r="I103" s="109">
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
         <v>0</v>
       </c>
@@ -11863,56 +11858,56 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>182</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>111</v>
+      <c r="I105" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C106" s="91">
+        <v>183</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
         <v>0</v>
       </c>
-      <c r="D106" s="109">
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
         <v>0</v>
       </c>
-      <c r="E106" s="122">
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
         <v>0</v>
       </c>
-      <c r="F106" s="109">
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
         <v>0</v>
       </c>
-      <c r="H106" s="122">
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
         <v>0</v>
       </c>
-      <c r="I106" s="122">
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
         <v>0</v>
       </c>
@@ -11923,15 +11918,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>156</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0268.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0268.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{824D41B4-05FA-4561-AA79-AC5FE21A91A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F182A22-46F5-4DD2-8139-2CE61CB41EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="277">
   <si>
     <t>Company Info:</t>
   </si>
@@ -983,6 +983,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1684,7 +1692,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2336,9 +2344,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2347,9 +2352,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2357,6 +2359,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2812,7 +2826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2834,7 +2848,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2842,7 +2856,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2875,7 +2889,7 @@
         <v>201</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2891,7 +2905,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2934,13 +2948,16 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
         <v>208</v>
       </c>
       <c r="C17" s="237" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -2958,7 +2975,7 @@
         <v>223</v>
       </c>
       <c r="C19" s="237" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -2967,7 +2984,7 @@
         <v>212</v>
       </c>
       <c r="C20" s="237" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -2976,7 +2993,7 @@
         <v>215</v>
       </c>
       <c r="C21" s="237" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -2985,7 +3002,7 @@
         <v>214</v>
       </c>
       <c r="C22" s="238" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3823,11 +3840,11 @@
       <c r="B89" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>191</v>
       </c>
@@ -3841,10 +3858,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
@@ -4066,8 +4083,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4080,8 +4100,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4124,60 +4144,60 @@
       <c r="B3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>0268.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>8.98</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>金蝶国际</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>3585854271</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>32200.97135358</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>32451.981152550004</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4200,11 +4220,11 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4224,7 +4244,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.0679666598637898</v>
+        <v>1.067369023958842</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4345,7 +4365,7 @@
         <v>249</v>
       </c>
       <c r="C20" s="271" t="e">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4357,20 +4377,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>247</v>
-      </c>
-      <c r="C21" s="273" t="e">
-        <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>254</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>-0.10658271165029927</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="275" t="e">
+      <c r="C22" s="274" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -4379,12 +4399,12 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>254</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>-0.10658271165029927</v>
+      <c r="B23" s="275" t="s">
+        <v>267</v>
+      </c>
+      <c r="C23" s="282" t="e">
+        <f>1/Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>174</v>
@@ -4395,10 +4415,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>255</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>3.8655956702792868E-3</v>
       </c>
@@ -4407,7 +4427,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-64.093427749314344</v>
+        <v>-64.629209054259249</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4458,10 +4478,10 @@
       <c r="F28" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>238</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4480,11 +4500,11 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="285">
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="285"/>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5515,7 +5535,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7756,7 +7776,7 @@
       <c r="B47" s="101" t="s">
         <v>245</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>262</v>
       </c>
       <c r="D47" s="36"/>
@@ -9683,7 +9703,7 @@
       <c r="H3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -10730,7 +10750,7 @@
       <c r="B48" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
@@ -10747,7 +10767,7 @@
       <c r="H48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>0</v>
       </c>
@@ -10856,11 +10876,11 @@
         <v>85</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10871,11 +10891,11 @@
         <v>86</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -10887,11 +10907,11 @@
         <v>88</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11105,19 +11125,19 @@
       <c r="B72" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11127,18 +11147,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000CNY)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11505,17 +11525,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.5602223739870079E-2</v>
+        <v>-1.5472880058928978E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.5602223739870079E-2</v>
+        <v>-1.5472880058928978E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.5602223739870079E-2</v>
+        <v>-1.5472880058928978E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11597,15 +11617,15 @@
       <c r="D92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11626,14 +11646,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-1.9549248870114062</v>
+        <v>-1.9551148506869296</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-1.9549248870114062</v>
+        <v>-1.9551148506869296</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11704,21 +11724,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-3485246.5783499954</v>
+        <v>-3485585.2462213435</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.97194317307770917</v>
+        <v>-0.97203761859773119</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.97194317307770917</v>
+        <v>-0.97203761859773119</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-1.2926505285912921</v>
+        <v>-1.2927761378396116</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11767,7 +11787,7 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>-3485246.5783499954</v>
+        <v>-3485585.2462213435</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>

--- a/financial_models/opportunities/0268.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0268.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F182A22-46F5-4DD2-8139-2CE61CB41EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85282004-8B2F-42A4-AF61-8FB90D6144B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4154,7 +4154,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>9.0500000000000007</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>276</v>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>32451.981152550004</v>
+        <v>32380.264067129996</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4244,7 +4244,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.067369023958842</v>
+        <v>1.0656713644663494</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-64.629209054259249</v>
+        <v>-64.589111603164568</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9654,7 +9654,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11525,17 +11525,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.5472880058928978E-2</v>
+        <v>-1.5482485749982117E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.5472880058928978E-2</v>
+        <v>-1.5482485749982117E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.5472880058928978E-2</v>
+        <v>-1.5482485749982117E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11646,14 +11646,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-1.9551148506869296</v>
+        <v>-1.9519100005762013</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-1.9551148506869296</v>
+        <v>-1.9519100005762013</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11724,21 +11724,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-3485585.2462213435</v>
+        <v>-3479871.6288047601</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.97203761859773119</v>
+        <v>-0.97044424168255894</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.97203761859773119</v>
+        <v>-0.97044424168255894</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-1.2927761378396116</v>
+        <v>-1.2906570021033932</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11765,7 +11765,7 @@
         <v>139</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D99" s="209"/>
@@ -11787,7 +11787,7 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>-3485585.2462213435</v>
+        <v>-3479871.6288047601</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>

--- a/financial_models/opportunities/0268.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0268.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53450FE8-7E9B-4107-9044-261911D70B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9BC026F-2742-41A1-9543-FFD8215754B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4367,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>8.75</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4408,7 +4408,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>31376.22487125</v>
+        <v>31555.517584800004</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4457,7 +4457,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0639030138651531</v>
+        <v>1.0638363361358643</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4588,7 +4588,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4645,7 +4645,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-62.690375422685165</v>
+        <v>-63.052557816678494</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11757,17 +11757,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.5951411891499689E-2</v>
+        <v>-1.5859784830735014E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.5951411891499689E-2</v>
+        <v>-1.5859784830735014E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.5951411891499689E-2</v>
+        <v>-1.5859784830735014E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11871,21 +11871,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-2.0075710644514895</v>
+        <v>-1.9448180419371268</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-2.0075710644514895</v>
+        <v>-1.9448180419371268</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11956,21 +11956,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-4733365.5137992231</v>
+        <v>-3467228.0613997635</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-1.32001056263762</v>
+        <v>-0.96691828483951336</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-1.32001056263762</v>
+        <v>-0.96691828483951336</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-1.5663238436453901</v>
+        <v>-1.285967602452053</v>
       </c>
       <c r="K97" s="75"/>
     </row>

--- a/financial_models/opportunities/0268.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0268.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9BC026F-2742-41A1-9543-FFD8215754B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FA0D0FD-5D74-4197-84EB-050CE0489E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2588,6 +2588,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2604,9 +2607,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2820,11 +2820,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3039,7 +3039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3064,6 +3064,7 @@
       <c r="C4" s="66" t="s">
         <v>281</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -4272,7 +4273,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4295,6 +4296,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4313,8 +4317,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4350,18 +4354,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>0268.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4377,7 +4384,7 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>金蝶国际</v>
       </c>
@@ -4406,11 +4413,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
         <v>31555.517584800004</v>
       </c>
-      <c r="H5" s="313"/>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4433,11 +4440,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4505,10 +4512,10 @@
         <v>221</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4555,7 +4562,7 @@
         <v>222</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4696,10 +4703,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4718,11 +4725,11 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="312">
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="312"/>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5704,15 +5711,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5740,7 +5748,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11867,7 +11875,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11878,14 +11886,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-1.9448180419371268</v>
+        <v>-2.1296561203030522</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-1.9448180419371268</v>
+        <v>-2.1296561203030522</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11956,21 +11964,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-3467228.0613997635</v>
+        <v>-3796758.0011195759</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-0.96691828483951336</v>
+        <v>-1.0588154772002936</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-0.96691828483951336</v>
+        <v>-1.0588154772002936</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-1.285967602452053</v>
+        <v>-1.4460577142794806</v>
       </c>
       <c r="K97" s="75"/>
     </row>

--- a/financial_models/opportunities/0268.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0268.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FA0D0FD-5D74-4197-84EB-050CE0489E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC03B19A-999C-40C9-AA37-9637C8570843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2588,31 +2588,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4354,27 +4354,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>0268.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>8.8000000000000007</v>
+        <v>8.81</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>259</v>
@@ -4384,40 +4384,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>金蝶国际</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>3585854271</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
-        <v>31555.517584800004</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>31591.376127510001</v>
+      </c>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4440,11 +4440,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4595,7 +4595,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4652,7 +4652,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-63.052557816678494</v>
+        <v>-63.124208450561078</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4703,10 +4703,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>225</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4725,11 +4725,11 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="313">
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="313"/>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5712,15 +5712,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11093,7 +11093,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11104,11 +11104,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11120,11 +11120,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11765,17 +11765,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.5859784830735014E-2</v>
+        <v>-1.5841782804820445E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.5859784830735014E-2</v>
+        <v>-1.5841782804820445E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.5859784830735014E-2</v>
+        <v>-1.5841782804820445E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11879,21 +11879,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-2.1296561203030522</v>
+        <v>-2.1641346584372827</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-2.1296561203030522</v>
+        <v>-2.1641346584372827</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11964,21 +11964,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-3796758.0011195759</v>
+        <v>-4436960.4213686828</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-1.0588154772002936</v>
+        <v>-1.2373510148618871</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-1.0588154772002936</v>
+        <v>-1.2373510148618871</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-1.4460577142794806</v>
+        <v>-1.5877612383290589</v>
       </c>
       <c r="K97" s="75"/>
     </row>

--- a/financial_models/opportunities/0268.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0268.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BC40EFA-1CA7-4F28-89A5-CDBB649BF9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B05A17D-3AC7-4DEA-ABC1-AC482C088D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2601,6 +2601,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2617,9 +2620,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4382,27 +4382,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>0268.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>8.81</v>
+        <v>8</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4412,7 +4412,7 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>金蝶国际</v>
       </c>
@@ -4441,11 +4441,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>31591.376127510001</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>28686.834168000001</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4468,11 +4468,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4492,7 +4492,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0638030370076497</v>
+        <v>1.0644076665242512</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4680,7 +4680,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-63.126184362489816</v>
+        <v>-57.289739808336279</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4731,10 +4731,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4753,11 +4753,11 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="313">
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="313"/>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5740,15 +5740,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11895,17 +11895,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.5841286941369603E-2</v>
+        <v>-1.7455132513178026E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.5841286941369603E-2</v>
+        <v>-1.7455132513178026E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.5841286941369603E-2</v>
+        <v>-1.7455132513178026E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12016,14 +12016,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-2.1821052076432785</v>
+        <v>-2.1690594343026941</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-2.1821052076432785</v>
+        <v>-2.1690594343026941</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12094,21 +12094,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-4473804.0693673873</v>
+        <v>-4447057.3141446244</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-1.2476257346955044</v>
+        <v>-1.2401667714467544</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-1.2476257346955044</v>
+        <v>-1.2401667714467544</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-1.603912469560413</v>
+        <v>-1.5943234367022674</v>
       </c>
       <c r="K97" s="75"/>
     </row>

--- a/financial_models/opportunities/0268.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0268.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B05A17D-3AC7-4DEA-ABC1-AC482C088D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7B86D3C-9B63-4CE9-9569-A2D6710E6D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2601,31 +2601,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4382,27 +4382,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>0268.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>8</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>256</v>
@@ -4412,40 +4412,40 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>金蝶国际</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>3585854271</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45603</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>28686.834168000001</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>29117.136680519998</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4468,11 +4468,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4492,7 +4492,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0644076665242512</v>
+        <v>1.061445673306783</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4680,7 +4680,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>-57.289739808336279</v>
+        <v>-58.311352522006437</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4731,10 +4731,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>223</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4753,11 +4753,11 @@
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
         <v>0</v>
       </c>
-      <c r="G29" s="314">
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="314"/>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5740,15 +5740,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11223,7 +11223,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11234,11 +11234,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11250,11 +11250,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11895,17 +11895,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.7455132513178026E-2</v>
+        <v>-1.714931924486925E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.7455132513178026E-2</v>
+        <v>-1.714931924486925E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>-1.7455132513178026E-2</v>
+        <v>-1.714931924486925E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12016,14 +12016,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>-2.1690594343026941</v>
+        <v>-2.1657176461710526</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>-2.1690594343026941</v>
+        <v>-2.1657176461710526</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12094,21 +12094,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>-4447057.3141446244</v>
+        <v>-4440205.9005235331</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>-1.2401667714467544</v>
+        <v>-1.238256093236404</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>-1.2401667714467544</v>
+        <v>-1.238256093236404</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>-1.5943234367022674</v>
+        <v>-1.5918671226637899</v>
       </c>
       <c r="K97" s="75"/>
     </row>
